--- a/OptLignin1.0/data_forRStudio.xlsx
+++ b/OptLignin1.0/data_forRStudio.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="14" uniqueCount="14">
   <si>
     <t>studyID</t>
   </si>
@@ -115,11 +115,11 @@
     <col min="7" max="7" width="14.5546875" customWidth="true"/>
     <col min="8" max="8" width="13.5546875" customWidth="true"/>
     <col min="9" max="9" width="11.5546875" customWidth="true"/>
-    <col min="10" max="10" width="12.5546875" customWidth="true"/>
-    <col min="11" max="11" width="13.5546875" customWidth="true"/>
+    <col min="10" max="10" width="15.5546875" customWidth="true"/>
+    <col min="11" max="11" width="15.5546875" customWidth="true"/>
     <col min="12" max="12" width="12.5546875" customWidth="true"/>
-    <col min="13" max="13" width="12.5546875" customWidth="true"/>
-    <col min="14" max="14" width="14.5546875" customWidth="true"/>
+    <col min="13" max="13" width="15.5546875" customWidth="true"/>
+    <col min="14" max="14" width="15.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -195,19 +195,19 @@
         <v>531.82665731294128</v>
       </c>
       <c r="J2" s="0">
-        <v>0.39904904144761311</v>
+        <v>0.0010932850450619538</v>
       </c>
       <c r="K2" s="0">
-        <v>0.25423901569422741</v>
+        <v>0.00069654524847733541</v>
       </c>
       <c r="L2" s="0">
         <v>16.470146836741169</v>
       </c>
       <c r="M2" s="0">
-        <v>0.47903096832625852</v>
+        <v>0.001312413611852763</v>
       </c>
       <c r="N2" s="0">
-        <v>0.081989154689702387</v>
+        <v>0.00022462782106767777</v>
       </c>
     </row>
     <row r="3">
@@ -239,19 +239,19 @@
         <v>174.43066838355051</v>
       </c>
       <c r="J3" s="0">
-        <v>0.37119712331404858</v>
+        <v>0.0010169784200384892</v>
       </c>
       <c r="K3" s="0">
-        <v>0.30743001429600647</v>
+        <v>0.0008422740117698807</v>
       </c>
       <c r="L3" s="0">
         <v>15.635322174114226</v>
       </c>
       <c r="M3" s="0">
-        <v>0.46714776735476121</v>
+        <v>0.0012798568968623596</v>
       </c>
       <c r="N3" s="0">
-        <v>0.028242219340963697</v>
+        <v>7.7375943399900541e-05</v>
       </c>
     </row>
     <row r="4">
@@ -283,19 +283,19 @@
         <v>186.37741640956125</v>
       </c>
       <c r="J4" s="0">
-        <v>0.42214224608583911</v>
+        <v>0.0011565540988653126</v>
       </c>
       <c r="K4" s="0">
-        <v>0.36578947029752346</v>
+        <v>0.001002162932321982</v>
       </c>
       <c r="L4" s="0">
         <v>14.824716100302979</v>
       </c>
       <c r="M4" s="0">
-        <v>0.53040109356961607</v>
+        <v>0.0014531536810126467</v>
       </c>
       <c r="N4" s="0">
-        <v>0.062282067384431115</v>
+        <v>0.00017063580105323593</v>
       </c>
     </row>
     <row r="5">
@@ -327,19 +327,19 @@
         <v>266.62414133048429</v>
       </c>
       <c r="J5" s="0">
-        <v>0.43194227986448563</v>
+        <v>0.0011834035064780429</v>
       </c>
       <c r="K5" s="0">
-        <v>0.33330971283414629</v>
+        <v>0.00091317729543601727</v>
       </c>
       <c r="L5" s="0">
         <v>16.958714444044048</v>
       </c>
       <c r="M5" s="0">
-        <v>0.51463245578768513</v>
+        <v>0.0014099519336648906</v>
       </c>
       <c r="N5" s="0">
-        <v>0.069598303031866537</v>
+        <v>0.0001906802822790864</v>
       </c>
     </row>
     <row r="6">
@@ -371,19 +371,19 @@
         <v>152.72572927342969</v>
       </c>
       <c r="J6" s="0">
-        <v>0.4694861961075093</v>
+        <v>0.0012862635509794775</v>
       </c>
       <c r="K6" s="0">
-        <v>0.44014764396635647</v>
+        <v>0.0012058839560722095</v>
       </c>
       <c r="L6" s="0">
         <v>16.56473754646742</v>
       </c>
       <c r="M6" s="0">
-        <v>0.62694289760747368</v>
+        <v>0.0017176517742670512</v>
       </c>
       <c r="N6" s="0">
-        <v>0.094434684174632966</v>
+        <v>0.00025872516212228208</v>
       </c>
     </row>
     <row r="7">
@@ -415,19 +415,19 @@
         <v>145.25508843551262</v>
       </c>
       <c r="J7" s="0">
-        <v>0.48353921476488065</v>
+        <v>0.0013247649719585772</v>
       </c>
       <c r="K7" s="0">
-        <v>0.46686637097605527</v>
+        <v>0.0012790859478796035</v>
       </c>
       <c r="L7" s="0">
         <v>18.06839490974901</v>
       </c>
       <c r="M7" s="0">
-        <v>0.64806102359971829</v>
+        <v>0.0017755096536978582</v>
       </c>
       <c r="N7" s="0">
-        <v>0.11030382557617048</v>
+        <v>0.00030220226185252187</v>
       </c>
     </row>
     <row r="8">
@@ -459,19 +459,19 @@
         <v>298.07580018137247</v>
       </c>
       <c r="J8" s="0">
-        <v>0.40257357733959243</v>
+        <v>0.0011029413077797052</v>
       </c>
       <c r="K8" s="0">
-        <v>0.30501867311391195</v>
+        <v>0.0008356675975723615</v>
       </c>
       <c r="L8" s="0">
         <v>15.717066618013027</v>
       </c>
       <c r="M8" s="0">
-        <v>0.5170190336538536</v>
+        <v>0.0014164905031612428</v>
       </c>
       <c r="N8" s="0">
-        <v>0.078726144034302795</v>
+        <v>0.00021568806584740493</v>
       </c>
     </row>
     <row r="9">
@@ -503,19 +503,19 @@
         <v>175.95117666791811</v>
       </c>
       <c r="J9" s="0">
-        <v>0.47755153362495606</v>
+        <v>0.00130836036609577</v>
       </c>
       <c r="K9" s="0">
-        <v>0.45994401255242984</v>
+        <v>0.0012601205823354242</v>
       </c>
       <c r="L9" s="0">
         <v>19.378514467339805</v>
       </c>
       <c r="M9" s="0">
-        <v>0.75539794423758289</v>
+        <v>0.00206958340887009</v>
       </c>
       <c r="N9" s="0">
-        <v>0.059249333734409805</v>
+        <v>0.00016232694173810906</v>
       </c>
     </row>
     <row r="10">
@@ -547,19 +547,19 @@
         <v>608.16288500610835</v>
       </c>
       <c r="J10" s="0">
-        <v>0.39618686951640064</v>
+        <v>0.0010854434781271251</v>
       </c>
       <c r="K10" s="0">
-        <v>0.16006421479986635</v>
+        <v>0.00043853209534209955</v>
       </c>
       <c r="L10" s="0">
         <v>27.206766490732342</v>
       </c>
       <c r="M10" s="0">
-        <v>0.37565790145041461</v>
+        <v>0.0010291997300011359</v>
       </c>
       <c r="N10" s="0">
-        <v>0.047391324501811216</v>
+        <v>0.00012983924521044169</v>
       </c>
     </row>
     <row r="11">
@@ -591,19 +591,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>0.43218249727623359</v>
+        <v>0.0011840616363732427</v>
       </c>
       <c r="K11" s="0">
-        <v>0.40228902330797534</v>
+        <v>0.0011021617076930831</v>
       </c>
       <c r="L11" s="0">
         <v>23.939809733548859</v>
       </c>
       <c r="M11" s="0">
-        <v>0.59273982427046967</v>
+        <v>0.001623944724028684</v>
       </c>
       <c r="N11" s="0">
-        <v>0.034815013443244343</v>
+        <v>9.5383598474642041e-05</v>
       </c>
     </row>
     <row r="12">
@@ -635,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.18250017559578399</v>
+        <v>0.00050000048108433969</v>
       </c>
       <c r="K12" s="0">
-        <v>0.191389916692739</v>
+        <v>0.00052435593614449038</v>
       </c>
       <c r="L12" s="0">
         <v>84.16705685904472</v>
       </c>
       <c r="M12" s="0">
-        <v>0.23787308202515764</v>
+        <v>0.00065170707404152775</v>
       </c>
       <c r="N12" s="0">
-        <v>0.19922167793837106</v>
+        <v>0.00054581281626950979</v>
       </c>
     </row>
     <row r="13">
@@ -679,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>0.29647252464566576</v>
+        <v>0.00081225349217990618</v>
       </c>
       <c r="K13" s="0">
-        <v>0.25911965810390047</v>
+        <v>0.00070991687151753555</v>
       </c>
       <c r="L13" s="0">
         <v>49.744122871298742</v>
       </c>
       <c r="M13" s="0">
-        <v>0.37351198124446205</v>
+        <v>0.00102332049656017</v>
       </c>
       <c r="N13" s="0">
-        <v>0.20104789557875549</v>
+        <v>0.000550816152270563</v>
       </c>
     </row>
     <row r="14">
@@ -723,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>0.30859234735944241</v>
+        <v>0.00084545848591628062</v>
       </c>
       <c r="K14" s="0">
-        <v>0.33617532817009105</v>
+        <v>0.00092102829635641386</v>
       </c>
       <c r="L14" s="0">
         <v>42.796222015857587</v>
       </c>
       <c r="M14" s="0">
-        <v>0.42726750952667142</v>
+        <v>0.0011705959165114286</v>
       </c>
       <c r="N14" s="0">
-        <v>0.32718650515388825</v>
+        <v>0.00089640138398325547</v>
       </c>
     </row>
     <row r="15">
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>0.37454181090134858</v>
+        <v>0.0010261419476749276</v>
       </c>
       <c r="K15" s="0">
-        <v>0.31368038873358262</v>
+        <v>0.00085939832529748669</v>
       </c>
       <c r="L15" s="0">
         <v>45.04808043953679</v>
       </c>
       <c r="M15" s="0">
-        <v>0.4213041131693539</v>
+        <v>0.0011542578442995997</v>
       </c>
       <c r="N15" s="0">
-        <v>0.18404606666396739</v>
+        <v>0.0005042357990793627</v>
       </c>
     </row>
     <row r="16">
@@ -811,19 +811,19 @@
         <v>48.200589693829791</v>
       </c>
       <c r="J16" s="0">
-        <v>0.31964978689964124</v>
+        <v>0.00087575284082093484</v>
       </c>
       <c r="K16" s="0">
-        <v>0.1913956228468843</v>
+        <v>0.00052437156944351864</v>
       </c>
       <c r="L16" s="0">
         <v>25.102875728625321</v>
       </c>
       <c r="M16" s="0">
-        <v>0.36469919147512092</v>
+        <v>0.00099917586705512576</v>
       </c>
       <c r="N16" s="0">
-        <v>0.021621516088899933</v>
+        <v>5.9237030380547764e-05</v>
       </c>
     </row>
     <row r="17">
@@ -855,19 +855,19 @@
         <v>425.31751602911987</v>
       </c>
       <c r="J17" s="0">
-        <v>0.84285824713108248</v>
+        <v>0.0023092006770714588</v>
       </c>
       <c r="K17" s="0">
-        <v>0.18990943591147558</v>
+        <v>0.00052029982441500154</v>
       </c>
       <c r="L17" s="0">
         <v>22.646292802824011</v>
       </c>
       <c r="M17" s="0">
-        <v>0.8444421862176763</v>
+        <v>0.0023135402362128117</v>
       </c>
       <c r="N17" s="0">
-        <v>0.060211074124478355</v>
+        <v>0.00016496184691637905</v>
       </c>
     </row>
     <row r="18">
@@ -899,19 +899,19 @@
         <v>270.24508936677461</v>
       </c>
       <c r="J18" s="0">
-        <v>0.38212921652880016</v>
+        <v>0.0010469293603528771</v>
       </c>
       <c r="K18" s="0">
-        <v>0.1296360238662865</v>
+        <v>0.00035516718867475755</v>
       </c>
       <c r="L18" s="0">
         <v>31.958326280813967</v>
       </c>
       <c r="M18" s="0">
-        <v>0.36222743491613979</v>
+        <v>0.00099240393127709536</v>
       </c>
       <c r="N18" s="0">
-        <v>0.040653296966475315</v>
+        <v>0.00011137889579856251</v>
       </c>
     </row>
     <row r="19">
@@ -943,19 +943,19 @@
         <v>491.91354936961068</v>
       </c>
       <c r="J19" s="0">
-        <v>1.0343466049418182</v>
+        <v>0.0028338263149090908</v>
       </c>
       <c r="K19" s="0">
-        <v>0.090244841168889825</v>
+        <v>0.00024724614018873926</v>
       </c>
       <c r="L19" s="0">
         <v>37.898685945183828</v>
       </c>
       <c r="M19" s="0">
-        <v>0.679890938150851</v>
+        <v>0.0018627148990434273</v>
       </c>
       <c r="N19" s="0">
-        <v>0.081638740078716868</v>
+        <v>0.00022366778103758046</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>0.4950127346583269</v>
+        <v>0.001356199273036512</v>
       </c>
       <c r="K20" s="0">
-        <v>0.57167602950744556</v>
+        <v>0.0015662356972806729</v>
       </c>
       <c r="L20" s="0">
         <v>7.0402338203956027</v>
       </c>
       <c r="M20" s="0">
-        <v>0.72007372202269748</v>
+        <v>0.0019728047178704041</v>
       </c>
       <c r="N20" s="0">
-        <v>0.059318756678918283</v>
+        <v>0.00016251714158607749</v>
       </c>
     </row>
     <row r="21">
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>0.45813557829916507</v>
+        <v>0.001255165967942918</v>
       </c>
       <c r="K21" s="0">
-        <v>0.55888712639726679</v>
+        <v>0.0015311976065678543</v>
       </c>
       <c r="L21" s="0">
         <v>6.7884051490742312</v>
       </c>
       <c r="M21" s="0">
-        <v>0.66414880468257731</v>
+        <v>0.0018195857662536366</v>
       </c>
       <c r="N21" s="0">
-        <v>0.20978737963536517</v>
+        <v>0.00057475994420647992</v>
       </c>
     </row>
     <row r="22">
@@ -1075,19 +1075,19 @@
         <v>111.55664475390256</v>
       </c>
       <c r="J22" s="0">
-        <v>0.44599176081343717</v>
+        <v>0.0012218952351053074</v>
       </c>
       <c r="K22" s="0">
-        <v>0.44356212205961054</v>
+        <v>0.0012152386905742755</v>
       </c>
       <c r="L22" s="0">
         <v>11.005936611389044</v>
       </c>
       <c r="M22" s="0">
-        <v>0.60441614418937928</v>
+        <v>0.0016559346416147377</v>
       </c>
       <c r="N22" s="0">
-        <v>0.075151068669491811</v>
+        <v>0.0002058933388205255</v>
       </c>
     </row>
     <row r="23">
@@ -1119,19 +1119,19 @@
         <v>33.127608231152692</v>
       </c>
       <c r="J23" s="0">
-        <v>0.49531024385002259</v>
+        <v>0.0013570143667123906</v>
       </c>
       <c r="K23" s="0">
-        <v>0.4764277630244122</v>
+        <v>0.0013052815425326362</v>
       </c>
       <c r="L23" s="0">
         <v>11.225622920280948</v>
       </c>
       <c r="M23" s="0">
-        <v>0.65573476392545493</v>
+        <v>0.001796533599795767</v>
       </c>
       <c r="N23" s="0">
-        <v>0.058334933023938773</v>
+        <v>0.00015982173431216103</v>
       </c>
     </row>
     <row r="24">
@@ -1163,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>0.4888616084337617</v>
+        <v>0.0013393468724212649</v>
       </c>
       <c r="K24" s="0">
-        <v>0.57302680713818865</v>
+        <v>0.0015699364579128455</v>
       </c>
       <c r="L24" s="0">
         <v>7.8767463965959488</v>
       </c>
       <c r="M24" s="0">
-        <v>0.66784655419976258</v>
+        <v>0.0018297165868486646</v>
       </c>
       <c r="N24" s="0">
-        <v>0.35634463324219617</v>
+        <v>0.00097628666641697589</v>
       </c>
     </row>
     <row r="25">
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="J25" s="0">
-        <v>0.44772473189550016</v>
+        <v>0.001226643101083562</v>
       </c>
       <c r="K25" s="0">
-        <v>0.5385715651556412</v>
+        <v>0.0014755385346729895</v>
       </c>
       <c r="L25" s="0">
         <v>9.2569486826628182</v>
       </c>
       <c r="M25" s="0">
-        <v>0.61526167152530853</v>
+        <v>0.0016856484151378315</v>
       </c>
       <c r="N25" s="0">
-        <v>0.38343775330873869</v>
+        <v>0.0010505143926266814</v>
       </c>
     </row>
     <row r="26">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="0">
-        <v>0.45739803606232698</v>
+        <v>0.0012531453042803479</v>
       </c>
       <c r="K26" s="0">
-        <v>0.47657218268531382</v>
+        <v>0.0013056772128364762</v>
       </c>
       <c r="L26" s="0">
         <v>10.221389880943127</v>
       </c>
       <c r="M26" s="0">
-        <v>0.61638534695233482</v>
+        <v>0.0016887269779516023</v>
       </c>
       <c r="N26" s="0">
-        <v>0.14835995094326995</v>
+        <v>0.00040646561902265741</v>
       </c>
     </row>
     <row r="27">
@@ -1295,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="J27" s="0">
-        <v>0.51444979055786122</v>
+        <v>0.0014094514809804418</v>
       </c>
       <c r="K27" s="0">
-        <v>0.48262299394015684</v>
+        <v>0.001322254777918238</v>
       </c>
       <c r="L27" s="0">
         <v>11.479885425488417</v>
       </c>
       <c r="M27" s="0">
-        <v>0.63510809375111654</v>
+        <v>0.0017400221746605932</v>
       </c>
       <c r="N27" s="0">
-        <v>0.086496337173145046</v>
+        <v>0.00023697626622779465</v>
       </c>
     </row>
     <row r="28">
@@ -1339,19 +1339,19 @@
         <v>309.49163355878761</v>
       </c>
       <c r="J28" s="0">
-        <v>0.83642271761389431</v>
+        <v>0.0022915690893531349</v>
       </c>
       <c r="K28" s="0">
-        <v>0.29561284195266491</v>
+        <v>0.00080989819713058885</v>
       </c>
       <c r="L28" s="0">
         <v>25.757737432011901</v>
       </c>
       <c r="M28" s="0">
-        <v>0.76485797043964565</v>
+        <v>0.0020955012888757415</v>
       </c>
       <c r="N28" s="0">
-        <v>0.071153158904336725</v>
+        <v>0.00019494016138174445</v>
       </c>
     </row>
     <row r="29">
@@ -1383,19 +1383,19 @@
         <v>111.38502263951119</v>
       </c>
       <c r="J29" s="0">
-        <v>0.57205393384517245</v>
+        <v>0.0015672710516306094</v>
       </c>
       <c r="K29" s="0">
-        <v>0.50999923934606917</v>
+        <v>0.0013972581899892307</v>
       </c>
       <c r="L29" s="0">
         <v>10.353262945243907</v>
       </c>
       <c r="M29" s="0">
-        <v>0.87440924580266222</v>
+        <v>0.0023956417693223623</v>
       </c>
       <c r="N29" s="0">
-        <v>0.04515128080181189</v>
+        <v>0.00012370213918304628</v>
       </c>
     </row>
     <row r="30">
@@ -1427,19 +1427,19 @@
         <v>105.41276613995106</v>
       </c>
       <c r="J30" s="0">
-        <v>0.52535908183834235</v>
+        <v>0.0014393399502420337</v>
       </c>
       <c r="K30" s="0">
-        <v>0.39871479798781967</v>
+        <v>0.0010923693095556703</v>
       </c>
       <c r="L30" s="0">
         <v>19.068028541280498</v>
       </c>
       <c r="M30" s="0">
-        <v>0.6670516057420085</v>
+        <v>0.0018275386458685163</v>
       </c>
       <c r="N30" s="0">
-        <v>0.043890503360396856</v>
+        <v>0.00012024795441204618</v>
       </c>
     </row>
     <row r="31">
@@ -1471,19 +1471,19 @@
         <v>241.24542420444624</v>
       </c>
       <c r="J31" s="0">
-        <v>0.83029924937758903</v>
+        <v>0.0022747924640481891</v>
       </c>
       <c r="K31" s="0">
-        <v>0.6120986555719623</v>
+        <v>0.0016769826180053763</v>
       </c>
       <c r="L31" s="0">
         <v>6.5264731848126321</v>
       </c>
       <c r="M31" s="0">
-        <v>1.2988719814320882</v>
+        <v>0.0035585533737865428</v>
       </c>
       <c r="N31" s="0">
-        <v>0.11360395042043037</v>
+        <v>0.00031124369978200101</v>
       </c>
     </row>
     <row r="32">
@@ -1515,19 +1515,19 @@
         <v>218.33096104189266</v>
       </c>
       <c r="J32" s="0">
-        <v>0.48616045846002209</v>
+        <v>0.0013319464615343072</v>
       </c>
       <c r="K32" s="0">
-        <v>0.25470742532517671</v>
+        <v>0.00069782856253473077</v>
       </c>
       <c r="L32" s="0">
         <v>15.680660917592938</v>
       </c>
       <c r="M32" s="0">
-        <v>0.54933151121701329</v>
+        <v>0.0015050178389507214</v>
       </c>
       <c r="N32" s="0">
-        <v>0.043036603531956708</v>
+        <v>0.00011790850282727866</v>
       </c>
     </row>
     <row r="33">
@@ -1559,19 +1559,19 @@
         <v>315.08457348346724</v>
       </c>
       <c r="J33" s="0">
-        <v>0.49876632209362465</v>
+        <v>0.0013664830742291087</v>
       </c>
       <c r="K33" s="0">
-        <v>0.20472761619072277</v>
+        <v>0.00056089757860471989</v>
       </c>
       <c r="L33" s="0">
         <v>25.283799677891189</v>
       </c>
       <c r="M33" s="0">
-        <v>0.58014764122178286</v>
+        <v>0.0015894455923884463</v>
       </c>
       <c r="N33" s="0">
-        <v>0.084232430209362025</v>
+        <v>0.0002307737813955124</v>
       </c>
     </row>
     <row r="34">
@@ -1603,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="J34" s="0">
-        <v>0.80646621170474053</v>
+        <v>0.0022094964704239468</v>
       </c>
       <c r="K34" s="0">
-        <v>0.86426573479561442</v>
+        <v>0.0023678513282071626</v>
       </c>
       <c r="L34" s="0">
         <v>9.2411889890549208</v>
       </c>
       <c r="M34" s="0">
-        <v>1.2322378168581525</v>
+        <v>0.0033759940187894589</v>
       </c>
       <c r="N34" s="0">
-        <v>0.27341741940687819</v>
+        <v>0.00074908882029281704</v>
       </c>
     </row>
     <row r="35">
@@ -1647,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="J35" s="0">
-        <v>0.80113204588559506</v>
+        <v>0.0021948823174947809</v>
       </c>
       <c r="K35" s="0">
-        <v>1.298054434276448</v>
+        <v>0.0035563135185656108</v>
       </c>
       <c r="L35" s="0">
         <v>1.0331664373978284</v>
       </c>
       <c r="M35" s="0">
-        <v>7.4073088460958969</v>
+        <v>0.020293996838618895</v>
       </c>
       <c r="N35" s="0">
-        <v>0.40363890910039535</v>
+        <v>0.00110586002493259</v>
       </c>
     </row>
     <row r="36">
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>0.52127895065796426</v>
+        <v>0.0014281615086519568</v>
       </c>
       <c r="K36" s="0">
-        <v>0.59267737312517466</v>
+        <v>0.0016237736250004785</v>
       </c>
       <c r="L36" s="0">
         <v>16.54581956923905</v>
       </c>
       <c r="M36" s="0">
-        <v>0.84555030108839868</v>
+        <v>0.002316576167365476</v>
       </c>
       <c r="N36" s="0">
-        <v>0.18429625764418756</v>
+        <v>0.00050492125381969191</v>
       </c>
     </row>
     <row r="37">
@@ -1735,19 +1735,19 @@
         <v>42.147382293984698</v>
       </c>
       <c r="J37" s="0">
-        <v>0.68724422455808154</v>
+        <v>0.0018828608892002233</v>
       </c>
       <c r="K37" s="0">
-        <v>0.518376331945819</v>
+        <v>0.0014202091286186821</v>
       </c>
       <c r="L37" s="0">
         <v>27.371376227423056</v>
       </c>
       <c r="M37" s="0">
-        <v>0.82274727700342842</v>
+        <v>0.0022541021287765164</v>
       </c>
       <c r="N37" s="0">
-        <v>0.061787011236555299</v>
+        <v>0.00016927948283987753</v>
       </c>
     </row>
     <row r="38">
@@ -1779,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>0.94544421797207467</v>
+        <v>0.0025902581314303417</v>
       </c>
       <c r="K38" s="0">
-        <v>1.633949793143656</v>
+        <v>0.0044765747757360436</v>
       </c>
       <c r="L38" s="0">
         <v>3.2797266326323089</v>
       </c>
       <c r="M38" s="0">
-        <v>2.6993840114820742</v>
+        <v>0.0073955726341974641</v>
       </c>
       <c r="N38" s="0">
-        <v>1.4362869301857497</v>
+        <v>0.0039350326854404099</v>
       </c>
     </row>
     <row r="39">
@@ -1823,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="J39" s="0">
-        <v>0.46602709339070403</v>
+        <v>0.0012767865572348056</v>
       </c>
       <c r="K39" s="0">
-        <v>0.85780125851629607</v>
+        <v>0.002350140434291222</v>
       </c>
       <c r="L39" s="0">
         <v>26.964270248897876</v>
       </c>
       <c r="M39" s="0">
-        <v>0.95112899232130121</v>
+        <v>0.0026058328556747977</v>
       </c>
       <c r="N39" s="0">
-        <v>0.95112899232130121</v>
+        <v>0.0026058328556747977</v>
       </c>
     </row>
     <row r="40">
@@ -1867,19 +1867,19 @@
         <v>11.928328897425894</v>
       </c>
       <c r="J40" s="0">
-        <v>2.1210198799363646</v>
+        <v>0.0058110133696886697</v>
       </c>
       <c r="K40" s="0">
-        <v>1.5183337860663271</v>
+        <v>0.0041598185919625398</v>
       </c>
       <c r="L40" s="0">
         <v>7.0919235001310108</v>
       </c>
       <c r="M40" s="0">
-        <v>2.3143410076983764</v>
+        <v>0.0063406602950640449</v>
       </c>
       <c r="N40" s="0">
-        <v>0.30107833874709838</v>
+        <v>0.00082487216095095454</v>
       </c>
     </row>
     <row r="41">
@@ -1911,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="J41" s="0">
-        <v>3.8324838821557621</v>
+        <v>0.010499955841522636</v>
       </c>
       <c r="K41" s="0">
-        <v>4.5159771369433948</v>
+        <v>0.012372540101214779</v>
       </c>
       <c r="L41" s="0">
         <v>0.62579200860883932</v>
       </c>
       <c r="M41" s="0">
-        <v>7.2989337905752461</v>
+        <v>0.019997078878288346</v>
       </c>
       <c r="N41" s="0">
-        <v>2.0347392844122112</v>
+        <v>0.0055746281764718119</v>
       </c>
     </row>
     <row r="42">
@@ -1955,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="J42" s="0">
-        <v>1.7937472811981554</v>
+        <v>0.0049143761128716589</v>
       </c>
       <c r="K42" s="0">
-        <v>1.2942821339717359</v>
+        <v>0.0035459784492376323</v>
       </c>
       <c r="L42" s="0">
         <v>9.8173891594130769</v>
       </c>
       <c r="M42" s="0">
-        <v>1.7970498586995698</v>
+        <v>0.0049234242704097805</v>
       </c>
       <c r="N42" s="0">
-        <v>0.72149274462427559</v>
+        <v>0.0019766924510254127</v>
       </c>
     </row>
     <row r="43">
@@ -1999,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="J43" s="0">
-        <v>1.7611293545281124</v>
+        <v>0.0048250119302140062</v>
       </c>
       <c r="K43" s="0">
-        <v>1.060113020311356</v>
+        <v>0.0029044192337297427</v>
       </c>
       <c r="L43" s="0">
         <v>12.134568507792286</v>
       </c>
       <c r="M43" s="0">
-        <v>1.6721443043067319</v>
+        <v>0.0045812172720732383</v>
       </c>
       <c r="N43" s="0">
-        <v>0.14605632586711079</v>
+        <v>0.00040015431744413912</v>
       </c>
     </row>
     <row r="44">
@@ -2043,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>1.1325571104269692</v>
+        <v>0.0031028961929506003</v>
       </c>
       <c r="K44" s="0">
-        <v>0.64433174549849082</v>
+        <v>0.0017652924534205228</v>
       </c>
       <c r="L44" s="0">
         <v>26.279161451442683</v>
       </c>
       <c r="M44" s="0">
-        <v>0.80622004335823561</v>
+        <v>0.0022088220365979057</v>
       </c>
       <c r="N44" s="0">
-        <v>0.44528139246067089</v>
+        <v>0.0012199490204401941</v>
       </c>
     </row>
     <row r="45">
@@ -2087,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="J45" s="0">
-        <v>1.3632288895519904</v>
+        <v>0.0037348736700054531</v>
       </c>
       <c r="K45" s="0">
-        <v>1.0692842038396331</v>
+        <v>0.0029295457639442</v>
       </c>
       <c r="L45" s="0">
         <v>12.668309393783668</v>
       </c>
       <c r="M45" s="0">
-        <v>1.42110654399633</v>
+        <v>0.003893442586291315</v>
       </c>
       <c r="N45" s="0">
-        <v>0.68346596242883695</v>
+        <v>0.0018725094861064026</v>
       </c>
     </row>
     <row r="46">
@@ -2131,19 +2131,19 @@
         <v>10.193689458985675</v>
       </c>
       <c r="J46" s="0">
-        <v>3.1493566626934619</v>
+        <v>0.0086283744183382523</v>
       </c>
       <c r="K46" s="0">
-        <v>3.2375952650530002</v>
+        <v>0.0088701240138438359</v>
       </c>
       <c r="L46" s="0">
         <v>2.4414065285105209</v>
       </c>
       <c r="M46" s="0">
-        <v>5.0878920445224374</v>
+        <v>0.013939430258965581</v>
       </c>
       <c r="N46" s="0">
-        <v>0.54093562155710184</v>
+        <v>0.0014820154015263063</v>
       </c>
     </row>
     <row r="47">
@@ -2175,19 +2175,19 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>1.6730439168548707</v>
+        <v>0.0045836819639859475</v>
       </c>
       <c r="K47" s="0">
-        <v>1.1097350552650276</v>
+        <v>0.0030403700144247332</v>
       </c>
       <c r="L47" s="0">
         <v>15.75564764017393</v>
       </c>
       <c r="M47" s="0">
-        <v>1.6311409322059591</v>
+        <v>0.0044688792663176964</v>
       </c>
       <c r="N47" s="0">
-        <v>0.29476159843983113</v>
+        <v>0.00080756602312282496</v>
       </c>
     </row>
     <row r="48">
@@ -2219,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>2.4530256533422476</v>
+        <v>0.006720618228334925</v>
       </c>
       <c r="K48" s="0">
-        <v>2.1130153873378328</v>
+        <v>0.0057890832529803636</v>
       </c>
       <c r="L48" s="0">
         <v>4.934652593117332</v>
       </c>
       <c r="M48" s="0">
-        <v>3.0840260328287035</v>
+        <v>0.0084493863913115159</v>
       </c>
       <c r="N48" s="0">
-        <v>0.81103176680984945</v>
+        <v>0.0022220048405749301</v>
       </c>
     </row>
     <row r="49">
@@ -2263,19 +2263,19 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>1.9986476588560675</v>
+        <v>0.0054757470105645687</v>
       </c>
       <c r="K49" s="0">
-        <v>1.9169489838207454</v>
+        <v>0.005251915024166426</v>
       </c>
       <c r="L49" s="0">
         <v>5.8457245147033339</v>
       </c>
       <c r="M49" s="0">
-        <v>2.5688601681067325</v>
+        <v>0.0070379730633061167</v>
       </c>
       <c r="N49" s="0">
-        <v>1.2363300155300645</v>
+        <v>0.0033872055220001765</v>
       </c>
     </row>
     <row r="50">
@@ -2307,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>2.2840297737690016</v>
+        <v>0.0062576158185452101</v>
       </c>
       <c r="K50" s="0">
-        <v>1.5414523250822934</v>
+        <v>0.0042231570550199816</v>
       </c>
       <c r="L50" s="0">
         <v>9.4448268619075346</v>
       </c>
       <c r="M50" s="0">
-        <v>2.3523441606731921</v>
+        <v>0.0064447785223923073</v>
       </c>
       <c r="N50" s="0">
-        <v>0.55107292215570536</v>
+        <v>0.0015097888278238502</v>
       </c>
     </row>
     <row r="51">
@@ -2351,19 +2351,19 @@
         <v>0</v>
       </c>
       <c r="J51" s="0">
-        <v>1.7744881864868074</v>
+        <v>0.0048616114698268693</v>
       </c>
       <c r="K51" s="0">
-        <v>1.6623517128297625</v>
+        <v>0.0045543882543281162</v>
       </c>
       <c r="L51" s="0">
         <v>6.4224154284408179</v>
       </c>
       <c r="M51" s="0">
-        <v>2.2493053393123659</v>
+        <v>0.0061624803816777152</v>
       </c>
       <c r="N51" s="0">
-        <v>1.033387256006185</v>
+        <v>0.0028311979616607807</v>
       </c>
     </row>
     <row r="52">
@@ -2395,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>2.244744645161028</v>
+        <v>0.0061499853292082962</v>
       </c>
       <c r="K52" s="0">
-        <v>1.7273546910198034</v>
+        <v>0.0047324786055337083</v>
       </c>
       <c r="L52" s="0">
         <v>7.1199512317039089</v>
       </c>
       <c r="M52" s="0">
-        <v>2.4762747087735892</v>
+        <v>0.0067843142706125736</v>
       </c>
       <c r="N52" s="0">
-        <v>0.15388202891621147</v>
+        <v>0.00042159459977044242</v>
       </c>
     </row>
     <row r="53">
@@ -2439,19 +2439,19 @@
         <v>10.594500387019641</v>
       </c>
       <c r="J53" s="0">
-        <v>3.1810515764243048</v>
+        <v>0.0087152097984227531</v>
       </c>
       <c r="K53" s="0">
-        <v>3.3066667687459681</v>
+        <v>0.0090593610102629261</v>
       </c>
       <c r="L53" s="0">
         <v>1.4793128748589814</v>
       </c>
       <c r="M53" s="0">
-        <v>5.4340422409682168</v>
+        <v>0.014887786961556758</v>
       </c>
       <c r="N53" s="0">
-        <v>0.3311935782508274</v>
+        <v>0.000907379666440623</v>
       </c>
     </row>
     <row r="54">
@@ -2483,19 +2483,19 @@
         <v>0</v>
       </c>
       <c r="J54" s="0">
-        <v>1.9223566128703</v>
+        <v>0.00526673044622</v>
       </c>
       <c r="K54" s="0">
-        <v>1.5635548892258291</v>
+        <v>0.0042837120252762441</v>
       </c>
       <c r="L54" s="0">
         <v>6.6262083183366096</v>
       </c>
       <c r="M54" s="0">
-        <v>2.2336111525014961</v>
+        <v>0.0061194826095931397</v>
       </c>
       <c r="N54" s="0">
-        <v>0.7356943611584893</v>
+        <v>0.0020156009894753131</v>
       </c>
     </row>
     <row r="55">
@@ -2527,19 +2527,19 @@
         <v>122.57242900580984</v>
       </c>
       <c r="J55" s="0">
-        <v>0.75043143671210322</v>
+        <v>0.0020559765389372691</v>
       </c>
       <c r="K55" s="0">
-        <v>1.5618053515174966</v>
+        <v>0.0042789187712808123</v>
       </c>
       <c r="L55" s="0">
         <v>1.6463350608043106</v>
       </c>
       <c r="M55" s="0">
-        <v>9.3923499303043325</v>
+        <v>0.025732465562477623</v>
       </c>
       <c r="N55" s="0">
-        <v>0.48348827986663018</v>
+        <v>0.0013246254242921375</v>
       </c>
     </row>
     <row r="56">
@@ -2571,19 +2571,19 @@
         <v>0</v>
       </c>
       <c r="J56" s="0">
-        <v>0.45065002045258129</v>
+        <v>0.0012346575902810446</v>
       </c>
       <c r="K56" s="0">
-        <v>0.24950630492439602</v>
+        <v>0.00068357891760108497</v>
       </c>
       <c r="L56" s="0">
         <v>64.591640126698323</v>
       </c>
       <c r="M56" s="0">
-        <v>0.3800059840424499</v>
+        <v>0.0010411122850478079</v>
       </c>
       <c r="N56" s="0">
-        <v>0.085215739812505534</v>
+        <v>0.00023346778030823435</v>
       </c>
     </row>
     <row r="57">
@@ -2615,19 +2615,19 @@
         <v>0</v>
       </c>
       <c r="J57" s="0">
-        <v>0.59591584686331089</v>
+        <v>0.0016326461557898929</v>
       </c>
       <c r="K57" s="0">
-        <v>0.54942577516640834</v>
+        <v>0.0015052760963463242</v>
       </c>
       <c r="L57" s="0">
         <v>18.577576010954406</v>
       </c>
       <c r="M57" s="0">
-        <v>0.73324795356908778</v>
+        <v>0.0020088985029290077</v>
       </c>
       <c r="N57" s="0">
-        <v>0.34064266544914401</v>
+        <v>0.00093326757657299724</v>
       </c>
     </row>
     <row r="58">
@@ -2659,19 +2659,19 @@
         <v>77.484769783004609</v>
       </c>
       <c r="J58" s="0">
-        <v>0.55700039965609283</v>
+        <v>0.0015260284922084734</v>
       </c>
       <c r="K58" s="0">
-        <v>0.39651621199013665</v>
+        <v>0.0010863457862743469</v>
       </c>
       <c r="L58" s="0">
         <v>23.543118668380618</v>
       </c>
       <c r="M58" s="0">
-        <v>0.64627561516681864</v>
+        <v>0.0017706181237447086</v>
       </c>
       <c r="N58" s="0">
-        <v>0.10223457916951897</v>
+        <v>0.00028009473745073692</v>
       </c>
     </row>
     <row r="59">
@@ -2703,19 +2703,19 @@
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>0.54569171270248928</v>
+        <v>0.0014950457882259981</v>
       </c>
       <c r="K59" s="0">
-        <v>0.4198299846323586</v>
+        <v>0.0011502191359790647</v>
       </c>
       <c r="L59" s="0">
         <v>23.5535750781867</v>
       </c>
       <c r="M59" s="0">
-        <v>0.57583569557108727</v>
+        <v>0.001577632042660513</v>
       </c>
       <c r="N59" s="0">
-        <v>0.28918001527142884</v>
+        <v>0.00079227401444227077</v>
       </c>
     </row>
     <row r="60">
@@ -2747,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="J60" s="0">
-        <v>0.80835461057148028</v>
+        <v>0.002214670165949261</v>
       </c>
       <c r="K60" s="0">
-        <v>0.69418938026005328</v>
+        <v>0.001901888713041242</v>
       </c>
       <c r="L60" s="0">
         <v>21.50158011419196</v>
       </c>
       <c r="M60" s="0">
-        <v>0.9869396537945726</v>
+        <v>0.0027039442569714318</v>
       </c>
       <c r="N60" s="0">
-        <v>0.38473035317647558</v>
+        <v>0.0010540557621273304</v>
       </c>
     </row>
     <row r="61">
@@ -2791,19 +2791,19 @@
         <v>0</v>
       </c>
       <c r="J61" s="0">
-        <v>0.62323786792171876</v>
+        <v>0.0017075010080047088</v>
       </c>
       <c r="K61" s="0">
-        <v>0.5073171842244486</v>
+        <v>0.0013899100937656127</v>
       </c>
       <c r="L61" s="0">
         <v>31.659593467975046</v>
       </c>
       <c r="M61" s="0">
-        <v>0.69944810177409822</v>
+        <v>0.0019162961692441047</v>
       </c>
       <c r="N61" s="0">
-        <v>0.30116068428838438</v>
+        <v>0.00082509776517365589</v>
       </c>
     </row>
     <row r="62">
@@ -2835,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>1.176615652114813</v>
+        <v>0.0032236045263419532</v>
       </c>
       <c r="K62" s="0">
-        <v>2.1358411074072894</v>
+        <v>0.005851619472348738</v>
       </c>
       <c r="L62" s="0">
         <v>1.000000000578775</v>
       </c>
       <c r="M62" s="0">
-        <v>7.256875835426702</v>
+        <v>0.019881851603908773</v>
       </c>
       <c r="N62" s="0">
-        <v>1.902736243210194</v>
+        <v>0.0052129760087950517</v>
       </c>
     </row>
     <row r="63">
@@ -2879,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="J63" s="0">
-        <v>1.0409921593083538</v>
+        <v>0.0028520333131735721</v>
       </c>
       <c r="K63" s="0">
-        <v>1.1597228782891456</v>
+        <v>0.0031773229542168368</v>
       </c>
       <c r="L63" s="0">
         <v>8.6641669678256061</v>
       </c>
       <c r="M63" s="0">
-        <v>1.6638815419785888</v>
+        <v>0.0045585795670646271</v>
       </c>
       <c r="N63" s="0">
-        <v>0.98706637011081222</v>
+        <v>0.0027042914249611294</v>
       </c>
     </row>
     <row r="64">
@@ -2923,19 +2923,19 @@
         <v>0</v>
       </c>
       <c r="J64" s="0">
-        <v>0.736784399231738</v>
+        <v>0.0020185873951554466</v>
       </c>
       <c r="K64" s="0">
-        <v>0.84235418458026656</v>
+        <v>0.0023078196837815522</v>
       </c>
       <c r="L64" s="0">
         <v>9.6287804014642546</v>
       </c>
       <c r="M64" s="0">
-        <v>1.1484150879147366</v>
+        <v>0.0031463427066157163</v>
       </c>
       <c r="N64" s="0">
-        <v>0.47386500790331654</v>
+        <v>0.0012982602956255248</v>
       </c>
     </row>
     <row r="65">
@@ -2967,19 +2967,19 @@
         <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>0.67312355038693295</v>
+        <v>0.0018441741106491314</v>
       </c>
       <c r="K65" s="0">
-        <v>0.80643038631734931</v>
+        <v>0.0022093983186776693</v>
       </c>
       <c r="L65" s="0">
         <v>10.087703401036235</v>
       </c>
       <c r="M65" s="0">
-        <v>1.0561695626448497</v>
+        <v>0.002893615240122876</v>
       </c>
       <c r="N65" s="0">
-        <v>0.44050991308648646</v>
+        <v>0.001206876474209552</v>
       </c>
     </row>
     <row r="66">
@@ -3011,19 +3011,19 @@
         <v>65.105522373899674</v>
       </c>
       <c r="J66" s="0">
-        <v>0.67958758078925519</v>
+        <v>0.0018618837829842609</v>
       </c>
       <c r="K66" s="0">
-        <v>0.57625110315557426</v>
+        <v>0.0015787701456317104</v>
       </c>
       <c r="L66" s="0">
         <v>15.562947062127908</v>
       </c>
       <c r="M66" s="0">
-        <v>0.87799505237772246</v>
+        <v>0.002405465896925267</v>
       </c>
       <c r="N66" s="0">
-        <v>0.11972828861232999</v>
+        <v>0.00032802270852693149</v>
       </c>
     </row>
     <row r="67">
@@ -3055,19 +3055,19 @@
         <v>0</v>
       </c>
       <c r="J67" s="0">
-        <v>0.56549267629352118</v>
+        <v>0.0015492950035438937</v>
       </c>
       <c r="K67" s="0">
-        <v>0.37621948387260129</v>
+        <v>0.0010307383119797296</v>
       </c>
       <c r="L67" s="0">
         <v>50.779258302085893</v>
       </c>
       <c r="M67" s="0">
-        <v>0.55485883152837689</v>
+        <v>0.0015201611822695258</v>
       </c>
       <c r="N67" s="0">
-        <v>0.23827013400156338</v>
+        <v>0.00065279488767551615</v>
       </c>
     </row>
     <row r="68">
@@ -3099,19 +3099,19 @@
         <v>0</v>
       </c>
       <c r="J68" s="0">
-        <v>0.35026902086587591</v>
+        <v>0.00095964115305719432</v>
       </c>
       <c r="K68" s="0">
-        <v>0.18328477026134921</v>
+        <v>0.00050215005551054574</v>
       </c>
       <c r="L68" s="0">
         <v>113.09827883020674</v>
       </c>
       <c r="M68" s="0">
-        <v>0.25507431215823179</v>
+        <v>0.00069883373194036102</v>
       </c>
       <c r="N68" s="0">
-        <v>0.12357524942547611</v>
+        <v>0.00033856232719308522</v>
       </c>
     </row>
     <row r="69">
@@ -3143,19 +3143,19 @@
         <v>202.93366303879921</v>
       </c>
       <c r="J69" s="0">
-        <v>0.49433654449246606</v>
+        <v>0.001354346697239633</v>
       </c>
       <c r="K69" s="0">
-        <v>0.22240260723045591</v>
+        <v>0.00060932221159029013</v>
       </c>
       <c r="L69" s="0">
         <v>36.529945907884638</v>
       </c>
       <c r="M69" s="0">
-        <v>0.42218635371496493</v>
+        <v>0.0011566749416848355</v>
       </c>
       <c r="N69" s="0">
-        <v>0.062134228922893449</v>
+        <v>0.00017023076417231083</v>
       </c>
     </row>
     <row r="70">
@@ -3187,19 +3187,19 @@
         <v>0</v>
       </c>
       <c r="J70" s="0">
-        <v>0.45228567619393312</v>
+        <v>0.001239138838887488</v>
       </c>
       <c r="K70" s="0">
-        <v>0.29432140470431206</v>
+        <v>0.00080636001288852618</v>
       </c>
       <c r="L70" s="0">
         <v>56.773194091180592</v>
       </c>
       <c r="M70" s="0">
-        <v>0.40897955030089189</v>
+        <v>0.0011204919186325805</v>
       </c>
       <c r="N70" s="0">
-        <v>0.15870289537093812</v>
+        <v>0.00043480245307106339</v>
       </c>
     </row>
     <row r="71">
@@ -3231,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="J71" s="0">
-        <v>0.67762107055267629</v>
+        <v>0.0018564960837059623</v>
       </c>
       <c r="K71" s="0">
-        <v>0.62324754507426106</v>
+        <v>0.0017075275207514003</v>
       </c>
       <c r="L71" s="0">
         <v>15.417511600930252</v>
       </c>
       <c r="M71" s="0">
-        <v>0.85163271248597194</v>
+        <v>0.0023332403081807451</v>
       </c>
       <c r="N71" s="0">
-        <v>0.34185083250534365</v>
+        <v>0.00093657762330231142</v>
       </c>
     </row>
     <row r="72">
@@ -3275,19 +3275,19 @@
         <v>115.97031761460318</v>
       </c>
       <c r="J72" s="0">
-        <v>0.60578279496306064</v>
+        <v>0.0016596788903097551</v>
       </c>
       <c r="K72" s="0">
-        <v>0.38793646870311427</v>
+        <v>0.0010628396402825049</v>
       </c>
       <c r="L72" s="0">
         <v>23.547202258626417</v>
       </c>
       <c r="M72" s="0">
-        <v>0.67935116312237409</v>
+        <v>0.0018612360633489702</v>
       </c>
       <c r="N72" s="0">
-        <v>0.10000593419598067</v>
+        <v>0.00027398886081090592</v>
       </c>
     </row>
     <row r="73">
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="J73" s="0">
-        <v>0.54399245712280864</v>
+        <v>0.001490390293487147</v>
       </c>
       <c r="K73" s="0">
-        <v>0.42267263882501244</v>
+        <v>0.0011580072296575683</v>
       </c>
       <c r="L73" s="0">
         <v>26.192742089610213</v>
       </c>
       <c r="M73" s="0">
-        <v>0.54768671687426285</v>
+        <v>0.0015005115530801721</v>
       </c>
       <c r="N73" s="0">
-        <v>0.29439728982374613</v>
+        <v>0.00080656791732533191</v>
       </c>
     </row>
     <row r="74">
@@ -3363,19 +3363,19 @@
         <v>0</v>
       </c>
       <c r="J74" s="0">
-        <v>1.8396294879409907</v>
+        <v>0.0050400807888794268</v>
       </c>
       <c r="K74" s="0">
-        <v>2.6117416420454247</v>
+        <v>0.0071554565535491086</v>
       </c>
       <c r="L74" s="0">
         <v>1.00000008279528</v>
       </c>
       <c r="M74" s="0">
-        <v>8.8896892777871948</v>
+        <v>0.02435531308982793</v>
       </c>
       <c r="N74" s="0">
-        <v>0.94689485882698199</v>
+        <v>0.0025942324899369371</v>
       </c>
     </row>
     <row r="75">
@@ -3407,19 +3407,19 @@
         <v>0</v>
       </c>
       <c r="J75" s="0">
-        <v>0.6584329764965744</v>
+        <v>0.0018039259630043135</v>
       </c>
       <c r="K75" s="0">
-        <v>0.54305511834623066</v>
+        <v>0.0014878222420444676</v>
       </c>
       <c r="L75" s="0">
         <v>25.998232562214302</v>
       </c>
       <c r="M75" s="0">
-        <v>0.78656332967568909</v>
+        <v>0.0021549680265087372</v>
       </c>
       <c r="N75" s="0">
-        <v>0.32385525962019523</v>
+        <v>0.0008872746838909459</v>
       </c>
     </row>
     <row r="76">
@@ -3451,19 +3451,19 @@
         <v>0</v>
       </c>
       <c r="J76" s="0">
-        <v>1.1749181001346716</v>
+        <v>0.0032189536989991</v>
       </c>
       <c r="K76" s="0">
-        <v>1.8235006620317014</v>
+        <v>0.0049958922247443872</v>
       </c>
       <c r="L76" s="0">
         <v>1.5802025477236399</v>
       </c>
       <c r="M76" s="0">
-        <v>4.2205540362170453</v>
+        <v>0.011563161743060397</v>
       </c>
       <c r="N76" s="0">
-        <v>1.0994423570273535</v>
+        <v>0.0030121708411708316</v>
       </c>
     </row>
     <row r="77">
@@ -3495,19 +3495,19 @@
         <v>0</v>
       </c>
       <c r="J77" s="0">
-        <v>1.0636599965097306</v>
+        <v>0.0029141369767389882</v>
       </c>
       <c r="K77" s="0">
-        <v>1.0322703001617708</v>
+        <v>0.0028281378086623859</v>
       </c>
       <c r="L77" s="0">
         <v>11.019516678597128</v>
       </c>
       <c r="M77" s="0">
-        <v>1.5422423841871786</v>
+        <v>0.0042253216005128181</v>
       </c>
       <c r="N77" s="0">
-        <v>0.70875802229017559</v>
+        <v>0.0019418028007950016</v>
       </c>
     </row>
     <row r="78">
@@ -3539,19 +3539,19 @@
         <v>0</v>
       </c>
       <c r="J78" s="0">
-        <v>0.74473072355289016</v>
+        <v>0.002040358146720247</v>
       </c>
       <c r="K78" s="0">
-        <v>0.87297023079473435</v>
+        <v>0.0023916992624513269</v>
       </c>
       <c r="L78" s="0">
         <v>7.7027567257926517</v>
       </c>
       <c r="M78" s="0">
-        <v>1.2419369810703238</v>
+        <v>0.0034025670714255447</v>
       </c>
       <c r="N78" s="0">
-        <v>0.5319211929448725</v>
+        <v>0.0014573183368352671</v>
       </c>
     </row>
     <row r="79">
@@ -3583,19 +3583,19 @@
         <v>0</v>
       </c>
       <c r="J79" s="0">
-        <v>0.74520343996414251</v>
+        <v>0.002041653260175733</v>
       </c>
       <c r="K79" s="0">
-        <v>0.84623326938723087</v>
+        <v>0.0023184473133896735</v>
       </c>
       <c r="L79" s="0">
         <v>11.121365427766534</v>
       </c>
       <c r="M79" s="0">
-        <v>1.0958275410529597</v>
+        <v>0.0030022672357615334</v>
       </c>
       <c r="N79" s="0">
-        <v>0.48685428842158229</v>
+        <v>0.0013338473655385816</v>
       </c>
     </row>
     <row r="80">
@@ -3627,19 +3627,19 @@
         <v>33.787192189948577</v>
       </c>
       <c r="J80" s="0">
-        <v>0.66290226007940067</v>
+        <v>0.0018161705755600018</v>
       </c>
       <c r="K80" s="0">
-        <v>0.57882603826975865</v>
+        <v>0.0015858247623829003</v>
       </c>
       <c r="L80" s="0">
         <v>14.540210511522988</v>
       </c>
       <c r="M80" s="0">
-        <v>0.88400729053973248</v>
+        <v>0.0024219377823006369</v>
       </c>
       <c r="N80" s="0">
-        <v>0.052977644431191309</v>
+        <v>0.00014514423131833235</v>
       </c>
     </row>
     <row r="81">
@@ -3671,19 +3671,19 @@
         <v>0</v>
       </c>
       <c r="J81" s="0">
-        <v>0.59800091908827813</v>
+        <v>0.0016383586824336386</v>
       </c>
       <c r="K81" s="0">
-        <v>0.37775027960010782</v>
+        <v>0.0010349322728770078</v>
       </c>
       <c r="L81" s="0">
         <v>45.973857894264547</v>
       </c>
       <c r="M81" s="0">
-        <v>0.60040653869287419</v>
+        <v>0.0016449494210763677</v>
       </c>
       <c r="N81" s="0">
-        <v>0.21413690956825895</v>
+        <v>0.0005866764645705725</v>
       </c>
     </row>
     <row r="82">
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="J82" s="0">
-        <v>0.41010395376289799</v>
+        <v>0.0011235724760627341</v>
       </c>
       <c r="K82" s="0">
-        <v>0.22012255852311335</v>
+        <v>0.00060307550280305029</v>
       </c>
       <c r="L82" s="0">
         <v>89.475551828823853</v>
       </c>
       <c r="M82" s="0">
-        <v>0.31412016333696263</v>
+        <v>0.00086060318722455513</v>
       </c>
       <c r="N82" s="0">
-        <v>0.14411520891432608</v>
+        <v>0.00039483618880637285</v>
       </c>
     </row>
     <row r="83">
@@ -3759,19 +3759,19 @@
         <v>197.4978197400431</v>
       </c>
       <c r="J83" s="0">
-        <v>0.53714606556365274</v>
+        <v>0.0014716330563387748</v>
       </c>
       <c r="K83" s="0">
-        <v>0.22483742681460694</v>
+        <v>0.00061599295017700532</v>
       </c>
       <c r="L83" s="0">
         <v>35.368523745644197</v>
       </c>
       <c r="M83" s="0">
-        <v>0.44643536123157163</v>
+        <v>0.0012231105787166346</v>
       </c>
       <c r="N83" s="0">
-        <v>0.033326509872828383</v>
+        <v>9.1305506500899688e-05</v>
       </c>
     </row>
     <row r="84">
@@ -3803,19 +3803,19 @@
         <v>0</v>
       </c>
       <c r="J84" s="0">
-        <v>1.0550847251807658</v>
+        <v>0.0028906430826870296</v>
       </c>
       <c r="K84" s="0">
-        <v>0.64283147709414223</v>
+        <v>0.0017611821290250472</v>
       </c>
       <c r="L84" s="0">
         <v>26.422539488982025</v>
       </c>
       <c r="M84" s="0">
-        <v>1.0516865360584613</v>
+        <v>0.0028813329755026334</v>
       </c>
       <c r="N84" s="0">
-        <v>0.26670212196340526</v>
+        <v>0.00073069074510521991</v>
       </c>
     </row>
     <row r="85">
@@ -3847,19 +3847,19 @@
         <v>231.77798065247006</v>
       </c>
       <c r="J85" s="0">
-        <v>0.76602721577012078</v>
+        <v>0.002098704700740057</v>
       </c>
       <c r="K85" s="0">
-        <v>0.32222510995583703</v>
+        <v>0.00088280852042695078</v>
       </c>
       <c r="L85" s="0">
         <v>36.26075584943991</v>
       </c>
       <c r="M85" s="0">
-        <v>0.61258909878906043</v>
+        <v>0.0016783262980522202</v>
       </c>
       <c r="N85" s="0">
-        <v>0.074641589027774069</v>
+        <v>0.00020449750418568237</v>
       </c>
     </row>
     <row r="86">
@@ -3891,19 +3891,19 @@
         <v>0</v>
       </c>
       <c r="J86" s="0">
-        <v>1.2937816297826563</v>
+        <v>0.0035446072048839899</v>
       </c>
       <c r="K86" s="0">
-        <v>1.5614982875129826</v>
+        <v>0.0042780775000355684</v>
       </c>
       <c r="L86" s="0">
         <v>2.4200179204144967</v>
       </c>
       <c r="M86" s="0">
-        <v>2.6503314873667301</v>
+        <v>0.0072611821571691238</v>
       </c>
       <c r="N86" s="0">
-        <v>0.069361446659046463</v>
+        <v>0.00019003136070971634</v>
       </c>
     </row>
     <row r="87">
@@ -3935,19 +3935,19 @@
         <v>0</v>
       </c>
       <c r="J87" s="0">
-        <v>1.8469831924800877</v>
+        <v>0.0050602279246029797</v>
       </c>
       <c r="K87" s="0">
-        <v>2.1375748301391333</v>
+        <v>0.0058563693976414607</v>
       </c>
       <c r="L87" s="0">
         <v>3.2002495288254496</v>
       </c>
       <c r="M87" s="0">
-        <v>3.3991724585832315</v>
+        <v>0.009312801256392415</v>
       </c>
       <c r="N87" s="0">
-        <v>1.4819884952308831</v>
+        <v>0.0040602424526873506</v>
       </c>
     </row>
     <row r="88">
@@ -3979,19 +3979,19 @@
         <v>124.5068775499567</v>
       </c>
       <c r="J88" s="0">
-        <v>1.4055748925035578</v>
+        <v>0.0038508901164481038</v>
       </c>
       <c r="K88" s="0">
-        <v>0.80857576610483484</v>
+        <v>0.0022152760715200954</v>
       </c>
       <c r="L88" s="0">
         <v>11.727759600196583</v>
       </c>
       <c r="M88" s="0">
-        <v>1.4759816123510157</v>
+        <v>0.0040437852393178514</v>
       </c>
       <c r="N88" s="0">
-        <v>0.13299124431570097</v>
+        <v>0.00036435957346767393</v>
       </c>
     </row>
     <row r="89">
@@ -4023,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="J89" s="0">
-        <v>1.7115319541618448</v>
+        <v>0.0046891286415393007</v>
       </c>
       <c r="K89" s="0">
-        <v>1.7091151620068981</v>
+        <v>0.0046825072931695839</v>
       </c>
       <c r="L89" s="0">
         <v>4.092330812656737</v>
       </c>
       <c r="M89" s="0">
-        <v>2.9775621329489108</v>
+        <v>0.0081577044738326328</v>
       </c>
       <c r="N89" s="0">
-        <v>0.54295187669016542</v>
+        <v>0.0014875393881922342</v>
       </c>
     </row>
     <row r="90">
@@ -4067,19 +4067,19 @@
         <v>91.842981238600956</v>
       </c>
       <c r="J90" s="0">
-        <v>1.728730840649302</v>
+        <v>0.0047362488784912383</v>
       </c>
       <c r="K90" s="0">
-        <v>0.95720918369148422</v>
+        <v>0.0026224909142232443</v>
       </c>
       <c r="L90" s="0">
         <v>10.173429028398663</v>
       </c>
       <c r="M90" s="0">
-        <v>1.7451800101079991</v>
+        <v>0.0047813150961862989</v>
       </c>
       <c r="N90" s="0">
-        <v>0.1346861091337693</v>
+        <v>0.00036900303872265558</v>
       </c>
     </row>
     <row r="91">
@@ -4111,19 +4111,19 @@
         <v>0</v>
       </c>
       <c r="J91" s="0">
-        <v>1.0085550897263367</v>
+        <v>0.002763164629387224</v>
       </c>
       <c r="K91" s="0">
-        <v>1.3657527028973462</v>
+        <v>0.0037417882271160172</v>
       </c>
       <c r="L91" s="0">
         <v>1.546255524885674</v>
       </c>
       <c r="M91" s="0">
-        <v>1.9991475874283586</v>
+        <v>0.0054771166778859138</v>
       </c>
       <c r="N91" s="0">
-        <v>0.52467033774181671</v>
+        <v>0.0014374529801145664</v>
       </c>
     </row>
     <row r="92">
@@ -4155,19 +4155,19 @@
         <v>0</v>
       </c>
       <c r="J92" s="0">
-        <v>2.1727630480192222</v>
+        <v>0.0059527754740252656</v>
       </c>
       <c r="K92" s="0">
-        <v>2.4845755506184464</v>
+        <v>0.0068070563030642366</v>
       </c>
       <c r="L92" s="0">
         <v>3.8758535593534256</v>
       </c>
       <c r="M92" s="0">
-        <v>3.5596774102474762</v>
+        <v>0.0097525408499930851</v>
       </c>
       <c r="N92" s="0">
-        <v>1.5075979107353161</v>
+        <v>0.0041304052348912768</v>
       </c>
     </row>
     <row r="93">
@@ -4199,19 +4199,19 @@
         <v>0</v>
       </c>
       <c r="J93" s="0">
-        <v>0.90881673674686092</v>
+        <v>0.0024899088677996189</v>
       </c>
       <c r="K93" s="0">
-        <v>0.81151315503030474</v>
+        <v>0.0022233237124117938</v>
       </c>
       <c r="L93" s="0">
         <v>7.0667036709711812</v>
       </c>
       <c r="M93" s="0">
-        <v>1.1566445690872869</v>
+        <v>0.0031688892303761282</v>
       </c>
       <c r="N93" s="0">
-        <v>0.34389465124371027</v>
+        <v>0.00094217712669509657</v>
       </c>
     </row>
     <row r="94">
@@ -4243,19 +4243,19 @@
         <v>0</v>
       </c>
       <c r="J94" s="0">
-        <v>1.1806133101104981</v>
+        <v>0.0032345570140013646</v>
       </c>
       <c r="K94" s="0">
-        <v>1.1100413502982251</v>
+        <v>0.003041209178899247</v>
       </c>
       <c r="L94" s="0">
         <v>4.6472331987201976</v>
       </c>
       <c r="M94" s="0">
-        <v>1.7903213623291612</v>
+        <v>0.0049049900337785239</v>
       </c>
       <c r="N94" s="0">
-        <v>0.17819204830851404</v>
+        <v>0.00048819739262606583</v>
       </c>
     </row>
     <row r="95">
@@ -4287,19 +4287,19 @@
         <v>29.626701930067124</v>
       </c>
       <c r="J95" s="0">
-        <v>1.3063380355861671</v>
+        <v>0.0035790083166744304</v>
       </c>
       <c r="K95" s="0">
-        <v>1.1704968520488326</v>
+        <v>0.0032068406905447467</v>
       </c>
       <c r="L95" s="0">
         <v>4.115139948929313</v>
       </c>
       <c r="M95" s="0">
-        <v>2.0457476369305669</v>
+        <v>0.0056047880463851148</v>
       </c>
       <c r="N95" s="0">
-        <v>0.14451725995003131</v>
+        <v>0.00039593769849323646</v>
       </c>
     </row>
     <row r="96">
@@ -4331,19 +4331,19 @@
         <v>0</v>
       </c>
       <c r="J96" s="0">
-        <v>0.16209570806943163</v>
+        <v>0.00044409783032720994</v>
       </c>
       <c r="K96" s="0">
-        <v>0.15251633656637034</v>
+        <v>0.00041785297689416536</v>
       </c>
       <c r="L96" s="0">
         <v>7.05628753434633</v>
       </c>
       <c r="M96" s="0">
-        <v>0.18450368076458223</v>
+        <v>0.00050548953634132121</v>
       </c>
       <c r="N96" s="0">
-        <v>0.074856802573284115</v>
+        <v>0.00020508713033776471</v>
       </c>
     </row>
     <row r="97">
@@ -4375,19 +4375,19 @@
         <v>666.65413459665501</v>
       </c>
       <c r="J97" s="0">
-        <v>0.38008274496455113</v>
+        <v>0.0010413225889439757</v>
       </c>
       <c r="K97" s="0">
-        <v>0.11035760558885048</v>
+        <v>0.00030234960435301499</v>
       </c>
       <c r="L97" s="0">
         <v>78.900238523104861</v>
       </c>
       <c r="M97" s="0">
-        <v>0.25708268783297439</v>
+        <v>0.00070433613104924487</v>
       </c>
       <c r="N97" s="0">
-        <v>0.0028782325123639313</v>
+        <v>7.8855685270244693e-06</v>
       </c>
     </row>
     <row r="98">
@@ -4419,19 +4419,19 @@
         <v>370.36340810925282</v>
       </c>
       <c r="J98" s="0">
-        <v>0.28077705182019591</v>
+        <v>0.00076925219676766</v>
       </c>
       <c r="K98" s="0">
-        <v>0.089837170221119769</v>
+        <v>0.00024612923348251993</v>
       </c>
       <c r="L98" s="0">
         <v>118.55712114169629</v>
       </c>
       <c r="M98" s="0">
-        <v>0.17645434191463491</v>
+        <v>0.00048343655319078058</v>
       </c>
       <c r="N98" s="0">
-        <v>0.0010566737480591862</v>
+        <v>2.8949965700251673e-06</v>
       </c>
     </row>
     <row r="99">
@@ -4463,19 +4463,19 @@
         <v>74.072681621850563</v>
       </c>
       <c r="J99" s="0">
-        <v>0.30159069180567877</v>
+        <v>0.00082627586796076371</v>
       </c>
       <c r="K99" s="0">
-        <v>0.13589803776534379</v>
+        <v>0.00037232339113792818</v>
       </c>
       <c r="L99" s="0">
         <v>111.66101849284983</v>
       </c>
       <c r="M99" s="0">
-        <v>0.21458119556498867</v>
+        <v>0.00058789368647942097</v>
       </c>
       <c r="N99" s="0">
-        <v>0.0023782973724217268</v>
+        <v>6.51588321211432e-06</v>
       </c>
     </row>
     <row r="100">
@@ -4507,19 +4507,19 @@
         <v>0</v>
       </c>
       <c r="J100" s="0">
-        <v>0.29108117139291467</v>
+        <v>0.00079748266135045115</v>
       </c>
       <c r="K100" s="0">
-        <v>0.1333536610112708</v>
+        <v>0.00036535249592128987</v>
       </c>
       <c r="L100" s="0">
         <v>84.790721990585055</v>
       </c>
       <c r="M100" s="0">
-        <v>0.20976861979756845</v>
+        <v>0.00057470854739059851</v>
       </c>
       <c r="N100" s="0">
-        <v>0.0010777703508708439</v>
+        <v>2.9527954818379286e-06</v>
       </c>
     </row>
     <row r="101">
@@ -4551,19 +4551,19 @@
         <v>296.29072648740225</v>
       </c>
       <c r="J101" s="0">
-        <v>0.25256502453954777</v>
+        <v>0.00069195897134122675</v>
       </c>
       <c r="K101" s="0">
-        <v>0.10122732223218424</v>
+        <v>0.00027733512940324449</v>
       </c>
       <c r="L101" s="0">
         <v>99.727711728002404</v>
       </c>
       <c r="M101" s="0">
-        <v>0.18820219005158711</v>
+        <v>0.00051562243849749892</v>
       </c>
       <c r="N101" s="0">
-        <v>0.001116572163642035</v>
+        <v>3.0591018181973558e-06</v>
       </c>
     </row>
     <row r="102">
@@ -4595,19 +4595,19 @@
         <v>814.79949784035625</v>
       </c>
       <c r="J102" s="0">
-        <v>0.62832632108388609</v>
+        <v>0.0017214419755722907</v>
       </c>
       <c r="K102" s="0">
-        <v>0.083845425229052653</v>
+        <v>0.00022971349377822646</v>
       </c>
       <c r="L102" s="0">
         <v>121.91886767149123</v>
       </c>
       <c r="M102" s="0">
-        <v>0.21854294325963342</v>
+        <v>0.00059874778975242031</v>
       </c>
       <c r="N102" s="0">
-        <v>0.0020791140946229093</v>
+        <v>5.6962029989668753e-06</v>
       </c>
     </row>
     <row r="103">
@@ -4639,19 +4639,19 @@
         <v>296.29072648740225</v>
       </c>
       <c r="J103" s="0">
-        <v>0.31483787922713619</v>
+        <v>0.00086256953212914022</v>
       </c>
       <c r="K103" s="0">
-        <v>0.12847241172466489</v>
+        <v>0.00035197921020456137</v>
       </c>
       <c r="L103" s="0">
         <v>128.98517873750652</v>
       </c>
       <c r="M103" s="0">
-        <v>0.22815134753221888</v>
+        <v>0.00062507218501977777</v>
       </c>
       <c r="N103" s="0">
-        <v>0.0028981101511053992</v>
+        <v>7.9400278112476695e-06</v>
       </c>
     </row>
     <row r="104">
@@ -4683,19 +4683,19 @@
         <v>592.58145297480451</v>
       </c>
       <c r="J104" s="0">
-        <v>0.37386242448995666</v>
+        <v>0.0010242806150409772</v>
       </c>
       <c r="K104" s="0">
-        <v>0.12214904219001688</v>
+        <v>0.00033465491010963526</v>
       </c>
       <c r="L104" s="0">
         <v>85.626188594923377</v>
       </c>
       <c r="M104" s="0">
-        <v>0.27635744633502041</v>
+        <v>0.00075714368858909704</v>
       </c>
       <c r="N104" s="0">
-        <v>0.0015793722381116293</v>
+        <v>4.3270472277030938e-06</v>
       </c>
     </row>
     <row r="105">
@@ -4727,19 +4727,19 @@
         <v>0</v>
       </c>
       <c r="J105" s="0">
-        <v>0.43400796597563518</v>
+        <v>0.0011890629204811922</v>
       </c>
       <c r="K105" s="0">
-        <v>0.49171321500732623</v>
+        <v>0.0013471594931707567</v>
       </c>
       <c r="L105" s="0">
         <v>8.0228411626151193</v>
       </c>
       <c r="M105" s="0">
-        <v>0.70512370782204337</v>
+        <v>0.0019318457748549135</v>
       </c>
       <c r="N105" s="0">
-        <v>0.18530002319850841</v>
+        <v>0.00050767129643426961</v>
       </c>
     </row>
     <row r="106">
@@ -4771,19 +4771,19 @@
         <v>769.01595005563183</v>
       </c>
       <c r="J106" s="0">
-        <v>0.58170228385467904</v>
+        <v>0.0015937048872730931</v>
       </c>
       <c r="K106" s="0">
-        <v>0.20771914427547913</v>
+        <v>0.00056909354596021682</v>
       </c>
       <c r="L106" s="0">
         <v>34.064704870887866</v>
       </c>
       <c r="M106" s="0">
-        <v>0.50453458764683945</v>
+        <v>0.0013822865414981902</v>
       </c>
       <c r="N106" s="0">
-        <v>0.056166767057863172</v>
+        <v>0.00015388155358318678</v>
       </c>
     </row>
     <row r="107">
@@ -4815,19 +4815,19 @@
         <v>187.15824097326825</v>
       </c>
       <c r="J107" s="0">
-        <v>0.18050655922442904</v>
+        <v>0.00049453851842309329</v>
       </c>
       <c r="K107" s="0">
-        <v>0.10855953760029245</v>
+        <v>0.00029742339068573274</v>
       </c>
       <c r="L107" s="0">
         <v>82.625871681743078</v>
       </c>
       <c r="M107" s="0">
-        <v>0.18107830422810225</v>
+        <v>0.00049610494309069108</v>
       </c>
       <c r="N107" s="0">
-        <v>0.024192816989705854</v>
+        <v>6.6281690382755763e-05</v>
       </c>
     </row>
     <row r="108">
@@ -4859,19 +4859,19 @@
         <v>1029.3703253529754</v>
       </c>
       <c r="J108" s="0">
-        <v>0.29907500216009864</v>
+        <v>0.00081938356756191405</v>
       </c>
       <c r="K108" s="0">
-        <v>0.075842429546054774</v>
+        <v>0.00020778747820836925</v>
       </c>
       <c r="L108" s="0">
         <v>83.385472767701415</v>
       </c>
       <c r="M108" s="0">
-        <v>0.25742531826228965</v>
+        <v>0.00070527484455421821</v>
       </c>
       <c r="N108" s="0">
-        <v>0.038055836201597533</v>
+        <v>0.00010426256493588365</v>
       </c>
     </row>
     <row r="109">
@@ -4903,19 +4903,19 @@
         <v>477.67494380276185</v>
       </c>
       <c r="J109" s="0">
-        <v>0.31558496335133523</v>
+        <v>0.00086461633794886368</v>
       </c>
       <c r="K109" s="0">
-        <v>0.13490342737360159</v>
+        <v>0.00036959843116055226</v>
       </c>
       <c r="L109" s="0">
         <v>63.73527529267556</v>
       </c>
       <c r="M109" s="0">
-        <v>0.27499781719104677</v>
+        <v>0.00075341867723574454</v>
       </c>
       <c r="N109" s="0">
-        <v>0.025138816968255116</v>
+        <v>6.8873471145904425e-05</v>
       </c>
     </row>
     <row r="110">
@@ -4947,19 +4947,19 @@
         <v>875.73739697173005</v>
       </c>
       <c r="J110" s="0">
-        <v>0.45434049005953947</v>
+        <v>0.0012447684659165465</v>
       </c>
       <c r="K110" s="0">
-        <v>0.11475940655475662</v>
+        <v>0.00031440933302673046</v>
       </c>
       <c r="L110" s="0">
         <v>71.919937398791177</v>
       </c>
       <c r="M110" s="0">
-        <v>0.32123336369729077</v>
+        <v>0.00088009140738983774</v>
       </c>
       <c r="N110" s="0">
-        <v>0.05332054986287528</v>
+        <v>0.00014608369825445282</v>
       </c>
     </row>
     <row r="111">
@@ -4991,19 +4991,19 @@
         <v>22.322356929053562</v>
       </c>
       <c r="J111" s="0">
-        <v>1.4549041758845165</v>
+        <v>0.0039860388380397712</v>
       </c>
       <c r="K111" s="0">
-        <v>0.91743523227593038</v>
+        <v>0.0025135211843176175</v>
       </c>
       <c r="L111" s="0">
         <v>12.679872145178733</v>
       </c>
       <c r="M111" s="0">
-        <v>1.5765147483479187</v>
+        <v>0.0043192184886244349</v>
       </c>
       <c r="N111" s="0">
-        <v>0.0059050101597209461</v>
+        <v>1.6178110026632729e-05</v>
       </c>
     </row>
     <row r="112">
@@ -5035,19 +5035,19 @@
         <v>92.69018503432018</v>
       </c>
       <c r="J112" s="0">
-        <v>1.3428412326023358</v>
+        <v>0.003679017075622838</v>
       </c>
       <c r="K112" s="0">
-        <v>0.81629175852498159</v>
+        <v>0.0022364157767807715</v>
       </c>
       <c r="L112" s="0">
         <v>12.932306222355091</v>
       </c>
       <c r="M112" s="0">
-        <v>1.6593627769648307</v>
+        <v>0.0045461993889447418</v>
       </c>
       <c r="N112" s="0">
-        <v>0.041089850070526367</v>
+        <v>0.00011257493170007225</v>
       </c>
     </row>
     <row r="113">
@@ -5079,19 +5079,19 @@
         <v>129.7534641117465</v>
       </c>
       <c r="J113" s="0">
-        <v>1.1494922988537328</v>
+        <v>0.0031492939694622818</v>
       </c>
       <c r="K113" s="0">
-        <v>0.50276346305849029</v>
+        <v>0.0013774341453657269</v>
       </c>
       <c r="L113" s="0">
         <v>19.621696713459222</v>
       </c>
       <c r="M113" s="0">
-        <v>1.2522540314312685</v>
+        <v>0.0034308329628253927</v>
       </c>
       <c r="N113" s="0">
-        <v>0.04524570167871296</v>
+        <v>0.00012396082651702181</v>
       </c>
     </row>
     <row r="114">
@@ -5123,19 +5123,19 @@
         <v>178.44261850677833</v>
       </c>
       <c r="J114" s="0">
-        <v>0.91748718589172995</v>
+        <v>0.0025136635229910408</v>
       </c>
       <c r="K114" s="0">
-        <v>0.25683868642243984</v>
+        <v>0.00070366763403408169</v>
       </c>
       <c r="L114" s="0">
         <v>26.515929010127774</v>
       </c>
       <c r="M114" s="0">
-        <v>0.95933368327161994</v>
+        <v>0.0026283114610181368</v>
       </c>
       <c r="N114" s="0">
-        <v>0.08577477285336732</v>
+        <v>0.00023499937768045842</v>
       </c>
     </row>
     <row r="115">
@@ -5167,19 +5167,19 @@
         <v>208.47233810582068</v>
       </c>
       <c r="J115" s="0">
-        <v>0.87155939946324601</v>
+        <v>0.002387833971132181</v>
       </c>
       <c r="K115" s="0">
-        <v>0.14148231669873818</v>
+        <v>0.00038762278547599502</v>
       </c>
       <c r="L115" s="0">
         <v>26.835743222345307</v>
       </c>
       <c r="M115" s="0">
-        <v>0.94246440598268888</v>
+        <v>0.0025820942629662708</v>
       </c>
       <c r="N115" s="0">
-        <v>0.017108239907805706</v>
+        <v>4.6871890158371797e-05</v>
       </c>
     </row>
     <row r="116">
@@ -5211,19 +5211,19 @@
         <v>338.83261502647099</v>
       </c>
       <c r="J116" s="0">
-        <v>0.52842820815263392</v>
+        <v>0.0014477485154866683</v>
       </c>
       <c r="K116" s="0">
-        <v>0.090266463391658322</v>
+        <v>0.00024730537915522828</v>
       </c>
       <c r="L116" s="0">
         <v>21.215756025322484</v>
       </c>
       <c r="M116" s="0">
-        <v>0.6069770239889043</v>
+        <v>0.0016629507506545323</v>
       </c>
       <c r="N116" s="0">
-        <v>0.062914325218983422</v>
+        <v>0.00017236801429858472</v>
       </c>
     </row>
     <row r="117">
@@ -5255,19 +5255,19 @@
         <v>268.84637143860272</v>
       </c>
       <c r="J117" s="0">
-        <v>0.57246571494520104</v>
+        <v>0.0015683992190279482</v>
       </c>
       <c r="K117" s="0">
-        <v>0.17512308327783224</v>
+        <v>0.00047978926925433492</v>
       </c>
       <c r="L117" s="0">
         <v>13.531057266439285</v>
       </c>
       <c r="M117" s="0">
-        <v>0.77016756335155578</v>
+        <v>0.0021100481187713857</v>
       </c>
       <c r="N117" s="0">
-        <v>0.063142140281049475</v>
+        <v>0.00017299216515356019</v>
       </c>
     </row>
     <row r="118">
@@ -5299,19 +5299,19 @@
         <v>347.90160468090085</v>
       </c>
       <c r="J118" s="0">
-        <v>0.49404466173118272</v>
+        <v>0.0013535470184415964</v>
       </c>
       <c r="K118" s="0">
-        <v>0.082883065636728259</v>
+        <v>0.00022707689215541987</v>
       </c>
       <c r="L118" s="0">
         <v>19.641120823917422</v>
       </c>
       <c r="M118" s="0">
-        <v>0.60867030031387415</v>
+        <v>0.0016675898638736277</v>
       </c>
       <c r="N118" s="0">
-        <v>0.08293831915691037</v>
+        <v>0.00022722827166276815</v>
       </c>
     </row>
     <row r="119">
@@ -5343,19 +5343,19 @@
         <v>241.05791870170523</v>
       </c>
       <c r="J119" s="0">
-        <v>0.50211740163328145</v>
+        <v>0.0013756641140637846</v>
       </c>
       <c r="K119" s="0">
-        <v>0.14420947253919514</v>
+        <v>0.00039509444531286343</v>
       </c>
       <c r="L119" s="0">
         <v>41.981573419290179</v>
       </c>
       <c r="M119" s="0">
-        <v>0.56358919900370086</v>
+        <v>0.0015440799972704135</v>
       </c>
       <c r="N119" s="0">
-        <v>0.067169323143184911</v>
+        <v>0.00018402554285804087</v>
       </c>
     </row>
     <row r="120">
@@ -5387,19 +5387,19 @@
         <v>318.06970212435732</v>
       </c>
       <c r="J120" s="0">
-        <v>0.71521475882884911</v>
+        <v>0.0019594924899420524</v>
       </c>
       <c r="K120" s="0">
-        <v>0.14367064903997132</v>
+        <v>0.00039361821654786665</v>
       </c>
       <c r="L120" s="0">
         <v>24.156542004690898</v>
       </c>
       <c r="M120" s="0">
-        <v>0.78056355097473595</v>
+        <v>0.0021385302766431121</v>
       </c>
       <c r="N120" s="0">
-        <v>0.11359358849692312</v>
+        <v>0.00031121531095047429</v>
       </c>
     </row>
     <row r="121">
@@ -5431,19 +5431,19 @@
         <v>308.6540244501428</v>
       </c>
       <c r="J121" s="0">
-        <v>0.76117478154949891</v>
+        <v>0.0020854103604095861</v>
       </c>
       <c r="K121" s="0">
-        <v>0.16323934634426526</v>
+        <v>0.00044723108587469936</v>
       </c>
       <c r="L121" s="0">
         <v>23.816833240202765</v>
       </c>
       <c r="M121" s="0">
-        <v>0.81374004742451456</v>
+        <v>0.0022294247874644233</v>
       </c>
       <c r="N121" s="0">
-        <v>0.086654594531937801</v>
+        <v>0.00023740984803270629</v>
       </c>
     </row>
     <row r="122">
@@ -5475,19 +5475,19 @@
         <v>389.30397229529251</v>
       </c>
       <c r="J122" s="0">
-        <v>0.70803493377553239</v>
+        <v>0.0019398217363713218</v>
       </c>
       <c r="K122" s="0">
-        <v>0.077797640234600257</v>
+        <v>0.00021314421982082264</v>
       </c>
       <c r="L122" s="0">
         <v>34.557696234770582</v>
       </c>
       <c r="M122" s="0">
-        <v>0.63729459296115043</v>
+        <v>0.0017460125834552068</v>
       </c>
       <c r="N122" s="0">
-        <v>0.11150626686897319</v>
+        <v>0.00030549662155883065</v>
       </c>
     </row>
     <row r="123">
@@ -5519,19 +5519,19 @@
         <v>0</v>
       </c>
       <c r="J123" s="0">
-        <v>0.62893000267066179</v>
+        <v>0.0017230958977278406</v>
       </c>
       <c r="K123" s="0">
-        <v>0.79053450965424543</v>
+        <v>0.0021658479716554668</v>
       </c>
       <c r="L123" s="0">
         <v>7.0317639554078983</v>
       </c>
       <c r="M123" s="0">
-        <v>1.0909395309773922</v>
+        <v>0.002988875427335321</v>
       </c>
       <c r="N123" s="0">
-        <v>0.065214959427379746</v>
+        <v>0.00017867112171884863</v>
       </c>
     </row>
     <row r="124">
@@ -5563,19 +5563,19 @@
         <v>0</v>
       </c>
       <c r="J124" s="0">
-        <v>0.57492741668281766</v>
+        <v>0.0015751436073501853</v>
       </c>
       <c r="K124" s="0">
-        <v>0.78470573205721317</v>
+        <v>0.0021498787179649675</v>
       </c>
       <c r="L124" s="0">
         <v>6.5025145133925299</v>
       </c>
       <c r="M124" s="0">
-        <v>1.0502943825116722</v>
+        <v>0.002877518856196362</v>
       </c>
       <c r="N124" s="0">
-        <v>0.27863452090767715</v>
+        <v>0.00076338224906212916</v>
       </c>
     </row>
     <row r="125">
@@ -5607,19 +5607,19 @@
         <v>57.373881416499401</v>
       </c>
       <c r="J125" s="0">
-        <v>0.65350974051380517</v>
+        <v>0.0017904376452433019</v>
       </c>
       <c r="K125" s="0">
-        <v>0.70180062466299931</v>
+        <v>0.0019227414374328748</v>
       </c>
       <c r="L125" s="0">
         <v>7.0341835905412804</v>
       </c>
       <c r="M125" s="0">
-        <v>1.1200314587895339</v>
+        <v>0.0030685793391494079</v>
       </c>
       <c r="N125" s="0">
-        <v>0.13654190335900199</v>
+        <v>0.00037408740646301917</v>
       </c>
     </row>
     <row r="126">
@@ -5651,19 +5651,19 @@
         <v>60.21203865031648</v>
       </c>
       <c r="J126" s="0">
-        <v>0.60551102941585722</v>
+        <v>0.0016589343271667322</v>
       </c>
       <c r="K126" s="0">
-        <v>0.64205082876013608</v>
+        <v>0.0017590433664661264</v>
       </c>
       <c r="L126" s="0">
         <v>7.7443604641035693</v>
       </c>
       <c r="M126" s="0">
-        <v>1.0318854383232454</v>
+        <v>0.0028270833926664261</v>
       </c>
       <c r="N126" s="0">
-        <v>0.14027597632883579</v>
+        <v>0.00038431774336667341</v>
       </c>
     </row>
     <row r="127">
@@ -5695,19 +5695,19 @@
         <v>0</v>
       </c>
       <c r="J127" s="0">
-        <v>1.4013948728150043</v>
+        <v>0.0038394380077123405</v>
       </c>
       <c r="K127" s="0">
-        <v>2.5445178593655911</v>
+        <v>0.0069712818064810713</v>
       </c>
       <c r="L127" s="0">
         <v>0.53577624718101269</v>
       </c>
       <c r="M127" s="0">
-        <v>6.5029161007695366</v>
+        <v>0.017816208495259004</v>
       </c>
       <c r="N127" s="0">
-        <v>3.1425180603684555</v>
+        <v>0.0086096385215574129</v>
       </c>
     </row>
     <row r="128">
@@ -5739,19 +5739,19 @@
         <v>0</v>
       </c>
       <c r="J128" s="0">
-        <v>1.330786851605833</v>
+        <v>0.0036459913742625562</v>
       </c>
       <c r="K128" s="0">
-        <v>2.2659187628104736</v>
+        <v>0.0062079966104396532</v>
       </c>
       <c r="L128" s="0">
         <v>0.92228312933006162</v>
       </c>
       <c r="M128" s="0">
-        <v>3.0287940856065569</v>
+        <v>0.0082980659879631699</v>
       </c>
       <c r="N128" s="0">
-        <v>2.4682918804227043</v>
+        <v>0.0067624435080074086</v>
       </c>
     </row>
     <row r="129">
@@ -5783,19 +5783,19 @@
         <v>0</v>
       </c>
       <c r="J129" s="0">
-        <v>1.3886790980262504</v>
+        <v>0.0038046002685650699</v>
       </c>
       <c r="K129" s="0">
-        <v>2.5873234743119031</v>
+        <v>0.0070885574638682282</v>
       </c>
       <c r="L129" s="0">
         <v>0.49734990587854266</v>
       </c>
       <c r="M129" s="0">
-        <v>7.1461657061974293</v>
+        <v>0.019578536181362821</v>
       </c>
       <c r="N129" s="0">
-        <v>3.4168831970877673</v>
+        <v>0.0093613238276377183</v>
       </c>
     </row>
     <row r="130">
@@ -5827,19 +5827,19 @@
         <v>0</v>
       </c>
       <c r="J130" s="0">
-        <v>1.4057365880124504</v>
+        <v>0.0038513331178423298</v>
       </c>
       <c r="K130" s="0">
-        <v>2.4420606320466076</v>
+        <v>0.006690577074100295</v>
       </c>
       <c r="L130" s="0">
         <v>0.77189538651743128</v>
       </c>
       <c r="M130" s="0">
-        <v>3.9315781780354242</v>
+        <v>0.010771447063110751</v>
       </c>
       <c r="N130" s="0">
-        <v>2.6827054464252789</v>
+        <v>0.0073498779354117232</v>
       </c>
     </row>
     <row r="131">
@@ -5871,19 +5871,19 @@
         <v>0</v>
       </c>
       <c r="J131" s="0">
-        <v>1.4369278020311067</v>
+        <v>0.0039367884987153608</v>
       </c>
       <c r="K131" s="0">
-        <v>2.0706436721820758</v>
+        <v>0.0056729963621426731</v>
       </c>
       <c r="L131" s="0">
         <v>0.81526910102432493</v>
       </c>
       <c r="M131" s="0">
-        <v>4.156878889821642</v>
+        <v>0.011388709287182582</v>
       </c>
       <c r="N131" s="0">
-        <v>0.30617360449647635</v>
+        <v>0.0008388317931410311</v>
       </c>
     </row>
     <row r="132">
@@ -5915,19 +5915,19 @@
         <v>16.23203426655849</v>
       </c>
       <c r="J132" s="0">
-        <v>1.4681640919674281</v>
+        <v>0.0040223673752532276</v>
       </c>
       <c r="K132" s="0">
-        <v>1.9737697603062616</v>
+        <v>0.0054075883844007166</v>
       </c>
       <c r="L132" s="0">
         <v>1.3646154610370715</v>
       </c>
       <c r="M132" s="0">
-        <v>2.6328247579977866</v>
+        <v>0.0072132185150624289</v>
       </c>
       <c r="N132" s="0">
-        <v>0.22066095215438061</v>
+        <v>0.00060455055384761808</v>
       </c>
     </row>
     <row r="133">
@@ -5959,19 +5959,19 @@
         <v>0</v>
       </c>
       <c r="J133" s="0">
-        <v>1.3549045292609556</v>
+        <v>0.0037120672034546727</v>
       </c>
       <c r="K133" s="0">
-        <v>1.9705165742115256</v>
+        <v>0.0053986755457850017</v>
       </c>
       <c r="L133" s="0">
         <v>1.0528137521902041</v>
       </c>
       <c r="M133" s="0">
-        <v>2.8599713972579175</v>
+        <v>0.0078355380746792259</v>
       </c>
       <c r="N133" s="0">
-        <v>0.41935233919925347</v>
+        <v>0.0011489105183541191</v>
       </c>
     </row>
     <row r="134">
@@ -6003,19 +6003,19 @@
         <v>0</v>
       </c>
       <c r="J134" s="0">
-        <v>1.1840979368328133</v>
+        <v>0.0032441039365282555</v>
       </c>
       <c r="K134" s="0">
-        <v>1.9903352417555245</v>
+        <v>0.0054529732650836285</v>
       </c>
       <c r="L134" s="0">
         <v>1.009166833049234</v>
       </c>
       <c r="M134" s="0">
-        <v>3.4041191796745935</v>
+        <v>0.0093263539169166944</v>
       </c>
       <c r="N134" s="0">
-        <v>1.5161085471527198</v>
+        <v>0.004153722046993753</v>
       </c>
     </row>
     <row r="135">
@@ -6047,19 +6047,19 @@
         <v>0</v>
       </c>
       <c r="J135" s="0">
-        <v>0.78309000894523706</v>
+        <v>0.0021454520793020193</v>
       </c>
       <c r="K135" s="0">
-        <v>1.0076260956156236</v>
+        <v>0.0027606194400428045</v>
       </c>
       <c r="L135" s="0">
         <v>1.9417362563420131</v>
       </c>
       <c r="M135" s="0">
-        <v>1.3177822744773648</v>
+        <v>0.0036103623958283967</v>
       </c>
       <c r="N135" s="0">
-        <v>0.19277849494778027</v>
+        <v>0.00052816026013090484</v>
       </c>
     </row>
     <row r="136">
@@ -6091,19 +6091,19 @@
         <v>0</v>
       </c>
       <c r="J136" s="0">
-        <v>0.43333624221822292</v>
+        <v>0.0011872225814197888</v>
       </c>
       <c r="K136" s="0">
-        <v>0.50677769166047693</v>
+        <v>0.0013884320319465123</v>
       </c>
       <c r="L136" s="0">
         <v>5.8529676211805945</v>
       </c>
       <c r="M136" s="0">
-        <v>0.65479219270296751</v>
+        <v>0.0017939512128848424</v>
       </c>
       <c r="N136" s="0">
-        <v>0.18649968070208942</v>
+        <v>0.00051095802932079291</v>
       </c>
     </row>
     <row r="137">
@@ -6135,19 +6135,19 @@
         <v>0</v>
       </c>
       <c r="J137" s="0">
-        <v>0.51755373810450855</v>
+        <v>0.0014179554468616673</v>
       </c>
       <c r="K137" s="0">
-        <v>0.70488540043231473</v>
+        <v>0.0019311928778967527</v>
       </c>
       <c r="L137" s="0">
         <v>4.1801005493940684</v>
       </c>
       <c r="M137" s="0">
-        <v>0.8095473698957395</v>
+        <v>0.0022179379997143548</v>
       </c>
       <c r="N137" s="0">
-        <v>0.43088877482692128</v>
+        <v>0.0011805171913066336</v>
       </c>
     </row>
     <row r="138">
@@ -6179,19 +6179,19 @@
         <v>113.00605346623863</v>
       </c>
       <c r="J138" s="0">
-        <v>0.62256668014243977</v>
+        <v>0.0017056621373765474</v>
       </c>
       <c r="K138" s="0">
-        <v>0.52188027278044868</v>
+        <v>0.0014298089665217772</v>
       </c>
       <c r="L138" s="0">
         <v>5.048934283313125</v>
       </c>
       <c r="M138" s="0">
-        <v>0.90312448426964698</v>
+        <v>0.0024743136555332793</v>
       </c>
       <c r="N138" s="0">
-        <v>0.087189203124538914</v>
+        <v>0.00023887452910832579</v>
       </c>
     </row>
     <row r="139">
@@ -6223,19 +6223,19 @@
         <v>15.438513164597923</v>
       </c>
       <c r="J139" s="0">
-        <v>1.9777966536764746</v>
+        <v>0.0054186209689766427</v>
       </c>
       <c r="K139" s="0">
-        <v>3.5702463504962476</v>
+        <v>0.0097814968506746511</v>
       </c>
       <c r="L139" s="0">
         <v>0.90195770572470468</v>
       </c>
       <c r="M139" s="0">
-        <v>11.367290458597111</v>
+        <v>0.031143261530403043</v>
       </c>
       <c r="N139" s="0">
-        <v>0.83808037418026282</v>
+        <v>0.0022961106141925008</v>
       </c>
     </row>
     <row r="140">
@@ -6267,19 +6267,19 @@
         <v>34.146644716916377</v>
       </c>
       <c r="J140" s="0">
-        <v>1.7141741851660066</v>
+        <v>0.0046963676305917992</v>
       </c>
       <c r="K140" s="0">
-        <v>2.4211405679979405</v>
+        <v>0.0066332618301313435</v>
       </c>
       <c r="L140" s="0">
         <v>2.0041672006280384</v>
       </c>
       <c r="M140" s="0">
-        <v>4.3594629923083463</v>
+        <v>0.011943734225502319</v>
       </c>
       <c r="N140" s="0">
-        <v>0.23361762626516225</v>
+        <v>0.00064004829113743084</v>
       </c>
     </row>
     <row r="141">
@@ -6311,19 +6311,19 @@
         <v>19.910966419892102</v>
       </c>
       <c r="J141" s="0">
-        <v>1.3445772013407722</v>
+        <v>0.0036837731543582801</v>
       </c>
       <c r="K141" s="0">
-        <v>2.0339674825581224</v>
+        <v>0.0055725136508441705</v>
       </c>
       <c r="L141" s="0">
         <v>2.0872515847151201</v>
       </c>
       <c r="M141" s="0">
-        <v>4.6074609851202428</v>
+        <v>0.012623180781151351</v>
       </c>
       <c r="N141" s="0">
-        <v>0.65966792840131272</v>
+        <v>0.0018073093928803088</v>
       </c>
     </row>
     <row r="142">
@@ -6355,19 +6355,19 @@
         <v>0</v>
       </c>
       <c r="J142" s="0">
-        <v>1.4161154913313361</v>
+        <v>0.0038797684694009209</v>
       </c>
       <c r="K142" s="0">
-        <v>2.7532411716800365</v>
+        <v>0.0075431264977535249</v>
       </c>
       <c r="L142" s="0">
         <v>1.0617143995374791</v>
       </c>
       <c r="M142" s="0">
-        <v>10.103002039616122</v>
+        <v>0.027679457642783897</v>
       </c>
       <c r="N142" s="0">
-        <v>1.4437210513466292</v>
+        <v>0.0039554001406756963</v>
       </c>
     </row>
     <row r="143">
@@ -6399,19 +6399,19 @@
         <v>0</v>
       </c>
       <c r="J143" s="0">
-        <v>1.9309144121329842</v>
+        <v>0.0052901764715972167</v>
       </c>
       <c r="K143" s="0">
-        <v>1.9922852667280155</v>
+        <v>0.0054583157992548368</v>
       </c>
       <c r="L143" s="0">
         <v>5.2277410204273416</v>
       </c>
       <c r="M143" s="0">
-        <v>2.6657601628489886</v>
+        <v>0.0073034525009561336</v>
       </c>
       <c r="N143" s="0">
-        <v>1.4068205383303392</v>
+        <v>0.0038543028447406555</v>
       </c>
     </row>
     <row r="144">
@@ -6443,19 +6443,19 @@
         <v>0</v>
       </c>
       <c r="J144" s="0">
-        <v>1.2916563353459085</v>
+        <v>0.0035387844803997496</v>
       </c>
       <c r="K144" s="0">
-        <v>1.5347428272118502</v>
+        <v>0.0042047748690735619</v>
       </c>
       <c r="L144" s="0">
         <v>8.9942326225612597</v>
       </c>
       <c r="M144" s="0">
-        <v>1.6974687838004261</v>
+        <v>0.0046505994076724002</v>
       </c>
       <c r="N144" s="0">
-        <v>1.5337217111419286</v>
+        <v>0.0042019772907998043</v>
       </c>
     </row>
     <row r="145">
@@ -6487,19 +6487,19 @@
         <v>0</v>
       </c>
       <c r="J145" s="0">
-        <v>1.198843472882839</v>
+        <v>0.0032845026654324356</v>
       </c>
       <c r="K145" s="0">
-        <v>1.2204917447591102</v>
+        <v>0.0033438129993400281</v>
       </c>
       <c r="L145" s="0">
         <v>11.662564280945441</v>
       </c>
       <c r="M145" s="0">
-        <v>1.4682630405077111</v>
+        <v>0.0040226384671444137</v>
       </c>
       <c r="N145" s="0">
-        <v>1.0332635340131979</v>
+        <v>0.0028308589972964324</v>
       </c>
     </row>
     <row r="146">
@@ -6531,19 +6531,19 @@
         <v>0</v>
       </c>
       <c r="J146" s="0">
-        <v>1.0505363716808005</v>
+        <v>0.0028781818402213713</v>
       </c>
       <c r="K146" s="0">
-        <v>1.0016447314513692</v>
+        <v>0.0027442321409626553</v>
       </c>
       <c r="L146" s="0">
         <v>16.336192393706412</v>
       </c>
       <c r="M146" s="0">
-        <v>1.181426505254807</v>
+        <v>0.0032367849459035807</v>
       </c>
       <c r="N146" s="0">
-        <v>0.80397046914953252</v>
+        <v>0.0022026588195877602</v>
       </c>
     </row>
     <row r="147">
@@ -6575,19 +6575,19 @@
         <v>0</v>
       </c>
       <c r="J147" s="0">
-        <v>2.5352690651175456</v>
+        <v>0.0069459426441576596</v>
       </c>
       <c r="K147" s="0">
-        <v>4.5219136794151726</v>
+        <v>0.012388804601137459</v>
       </c>
       <c r="L147" s="0">
         <v>0.50000000002145495</v>
       </c>
       <c r="M147" s="0">
-        <v>18.091732321921299</v>
+        <v>0.049566389923072052</v>
       </c>
       <c r="N147" s="0">
-        <v>1.8502716398152219</v>
+        <v>0.0050692373693567725</v>
       </c>
     </row>
     <row r="148">
@@ -6619,19 +6619,19 @@
         <v>0</v>
       </c>
       <c r="J148" s="0">
-        <v>1.865837593800856</v>
+        <v>0.0051118838186324823</v>
       </c>
       <c r="K148" s="0">
-        <v>3.004886991212246</v>
+        <v>0.0082325670992116334</v>
       </c>
       <c r="L148" s="0">
         <v>1.9211247261529241</v>
       </c>
       <c r="M148" s="0">
-        <v>4.2010967961809262</v>
+        <v>0.011509854236112126</v>
       </c>
       <c r="N148" s="0">
-        <v>1.0183193232261682</v>
+        <v>0.0027899159540442963</v>
       </c>
     </row>
     <row r="149">
@@ -6663,19 +6663,19 @@
         <v>0</v>
       </c>
       <c r="J149" s="0">
-        <v>2.3385451163204607</v>
+        <v>0.0064069729214259194</v>
       </c>
       <c r="K149" s="0">
-        <v>4.1120485019756545</v>
+        <v>0.011265886306782614</v>
       </c>
       <c r="L149" s="0">
         <v>0.9423746331105386</v>
       </c>
       <c r="M149" s="0">
-        <v>10.004378107610101</v>
+        <v>0.027409255089342742</v>
       </c>
       <c r="N149" s="0">
-        <v>1.2578841813520183</v>
+        <v>0.0034462580311014198</v>
       </c>
     </row>
     <row r="150">
@@ -6707,19 +6707,19 @@
         <v>0</v>
       </c>
       <c r="J150" s="0">
-        <v>1.9957519207915539</v>
+        <v>0.0054678134816206958</v>
       </c>
       <c r="K150" s="0">
-        <v>3.3632649907077412</v>
+        <v>0.0092144246320760032</v>
       </c>
       <c r="L150" s="0">
         <v>1.2104814149706549</v>
       </c>
       <c r="M150" s="0">
-        <v>7.7409678260582613</v>
+        <v>0.021208131030296607</v>
       </c>
       <c r="N150" s="0">
-        <v>1.3469344554253173</v>
+        <v>0.003690231384726897</v>
       </c>
     </row>
     <row r="151">
@@ -6751,19 +6751,19 @@
         <v>0</v>
       </c>
       <c r="J151" s="0">
-        <v>1.5729183762179464</v>
+        <v>0.0043093654142957434</v>
       </c>
       <c r="K151" s="0">
-        <v>2.7083686036999208</v>
+        <v>0.0074201879553422488</v>
       </c>
       <c r="L151" s="0">
         <v>1.9041756207466729</v>
       </c>
       <c r="M151" s="0">
-        <v>4.9502700058867317</v>
+        <v>0.013562383577771868</v>
       </c>
       <c r="N151" s="0">
-        <v>1.800657135476279</v>
+        <v>0.0049333072204829562</v>
       </c>
     </row>
     <row r="152">
@@ -6795,19 +6795,19 @@
         <v>0</v>
       </c>
       <c r="J152" s="0">
-        <v>1.5645185631518737</v>
+        <v>0.0042863522278133526</v>
       </c>
       <c r="K152" s="0">
-        <v>2.6718651271533673</v>
+        <v>0.0073201784305571707</v>
       </c>
       <c r="L152" s="0">
         <v>2.0937425125476512</v>
       </c>
       <c r="M152" s="0">
-        <v>4.3099318592585858</v>
+        <v>0.011808032491119414</v>
       </c>
       <c r="N152" s="0">
-        <v>1.8147505366366006</v>
+        <v>0.0049719192784564402</v>
       </c>
     </row>
     <row r="153">
@@ -6839,19 +6839,19 @@
         <v>0</v>
       </c>
       <c r="J153" s="0">
-        <v>1.7023767298626946</v>
+        <v>0.0046640458352402592</v>
       </c>
       <c r="K153" s="0">
-        <v>3.0562197471580173</v>
+        <v>0.0083732047867342944</v>
       </c>
       <c r="L153" s="0">
         <v>1.7313531858670608</v>
       </c>
       <c r="M153" s="0">
-        <v>5.4893328964742523</v>
+        <v>0.0150392682095185</v>
       </c>
       <c r="N153" s="0">
-        <v>2.0445043984329279</v>
+        <v>0.0056013819135148713</v>
       </c>
     </row>
     <row r="154">
@@ -6883,19 +6883,19 @@
         <v>0</v>
       </c>
       <c r="J154" s="0">
-        <v>1.6912988936411646</v>
+        <v>0.0046336955990168892</v>
       </c>
       <c r="K154" s="0">
-        <v>3.0282844119381496</v>
+        <v>0.0082966696217483555</v>
       </c>
       <c r="L154" s="0">
         <v>1.6282640334041703</v>
       </c>
       <c r="M154" s="0">
-        <v>5.9862932226964691</v>
+        <v>0.016400803349853339</v>
       </c>
       <c r="N154" s="0">
-        <v>2.1636416927549336</v>
+        <v>0.0059277854596025579</v>
       </c>
     </row>
     <row r="155">
@@ -6927,19 +6927,19 @@
         <v>0</v>
       </c>
       <c r="J155" s="0">
-        <v>1.370756483491872</v>
+        <v>0.0037554972150462243</v>
       </c>
       <c r="K155" s="0">
-        <v>2.4962978852521438</v>
+        <v>0.0068391722883620384</v>
       </c>
       <c r="L155" s="0">
         <v>0.5503803818719637</v>
       </c>
       <c r="M155" s="0">
-        <v>6.3336887341591828</v>
+        <v>0.01735257187440872</v>
       </c>
       <c r="N155" s="0">
-        <v>3.1205500959350858</v>
+        <v>0.0085494523176303724</v>
       </c>
     </row>
     <row r="156">
@@ -6971,19 +6971,19 @@
         <v>0</v>
       </c>
       <c r="J156" s="0">
-        <v>1.3437673257568727</v>
+        <v>0.0036815543171421169</v>
       </c>
       <c r="K156" s="0">
-        <v>2.334792609701704</v>
+        <v>0.0063966920813745311</v>
       </c>
       <c r="L156" s="0">
         <v>0.81429697465189432</v>
       </c>
       <c r="M156" s="0">
-        <v>3.7125500703140193</v>
+        <v>0.010171370055654848</v>
       </c>
       <c r="N156" s="0">
-        <v>2.6400963764627949</v>
+        <v>0.0072331407574323147</v>
       </c>
     </row>
     <row r="157">
@@ -7015,19 +7015,19 @@
         <v>0</v>
       </c>
       <c r="J157" s="0">
-        <v>1.346117497028154</v>
+        <v>0.0036879931425428877</v>
       </c>
       <c r="K157" s="0">
-        <v>2.5448498545148839</v>
+        <v>0.0069721913822325581</v>
       </c>
       <c r="L157" s="0">
         <v>0.65866793210223396</v>
       </c>
       <c r="M157" s="0">
-        <v>5.1252018660614054</v>
+        <v>0.014041648948113439</v>
       </c>
       <c r="N157" s="0">
-        <v>3.4299787212782977</v>
+        <v>0.0093972019761049252</v>
       </c>
     </row>
     <row r="158">
@@ -7059,19 +7059,19 @@
         <v>0</v>
       </c>
       <c r="J158" s="0">
-        <v>1.2729366219166454</v>
+        <v>0.0034874975942921788</v>
       </c>
       <c r="K158" s="0">
-        <v>2.1833543262256727</v>
+        <v>0.0059817926745908846</v>
       </c>
       <c r="L158" s="0">
         <v>0.92969778668713565</v>
       </c>
       <c r="M158" s="0">
-        <v>3.0893421253120561</v>
+        <v>0.0084639510282522087</v>
       </c>
       <c r="N158" s="0">
-        <v>2.4630934091173682</v>
+        <v>0.0067482011208695025</v>
       </c>
     </row>
     <row r="159">
@@ -7103,19 +7103,19 @@
         <v>0</v>
       </c>
       <c r="J159" s="0">
-        <v>0.87466704163361697</v>
+        <v>0.0023963480592701833</v>
       </c>
       <c r="K159" s="0">
-        <v>1.161469283409587</v>
+        <v>0.0031821076257796906</v>
       </c>
       <c r="L159" s="0">
         <v>0.8674830222285429</v>
       </c>
       <c r="M159" s="0">
-        <v>1.4300316713724768</v>
+        <v>0.0039178949900615804</v>
       </c>
       <c r="N159" s="0">
-        <v>0.26217736424236693</v>
+        <v>0.00071829414860922439</v>
       </c>
     </row>
     <row r="160">
@@ -7147,19 +7147,19 @@
         <v>17.247031779047276</v>
       </c>
       <c r="J160" s="0">
-        <v>1.0127810594843523</v>
+        <v>0.002774742628724253</v>
       </c>
       <c r="K160" s="0">
-        <v>1.309798904134001</v>
+        <v>0.0035884901483123318</v>
       </c>
       <c r="L160" s="0">
         <v>0.96483791031984922</v>
       </c>
       <c r="M160" s="0">
-        <v>1.5961591613479584</v>
+        <v>0.0043730387982135847</v>
       </c>
       <c r="N160" s="0">
-        <v>0.25760697480044914</v>
+        <v>0.00070577253369986069</v>
       </c>
     </row>
     <row r="161">
@@ -7191,19 +7191,19 @@
         <v>16.763399527264674</v>
       </c>
       <c r="J161" s="0">
-        <v>1.1190862826667112</v>
+        <v>0.0030659898155252362</v>
       </c>
       <c r="K161" s="0">
-        <v>1.4686479577832106</v>
+        <v>0.0040236930350224945</v>
       </c>
       <c r="L161" s="0">
         <v>0.77652191566479345</v>
       </c>
       <c r="M161" s="0">
-        <v>1.7938786656536512</v>
+        <v>0.004914736070283976</v>
       </c>
       <c r="N161" s="0">
-        <v>0.25432759644954567</v>
+        <v>0.0006967879354782073</v>
       </c>
     </row>
     <row r="162">
@@ -7235,19 +7235,19 @@
         <v>17.10742101968782</v>
       </c>
       <c r="J162" s="0">
-        <v>1.1186913174885942</v>
+        <v>0.0030649077191468332</v>
       </c>
       <c r="K162" s="0">
-        <v>1.4604384942450099</v>
+        <v>0.0040012013540959178</v>
       </c>
       <c r="L162" s="0">
         <v>0.76025460325786776</v>
       </c>
       <c r="M162" s="0">
-        <v>1.7985128765282907</v>
+        <v>0.0049274325384336733</v>
       </c>
       <c r="N162" s="0">
-        <v>0.22299807920101372</v>
+        <v>0.00061095364164661292</v>
       </c>
     </row>
     <row r="163">
@@ -7279,19 +7279,19 @@
         <v>0</v>
       </c>
       <c r="J163" s="0">
-        <v>1.4575340954555136</v>
+        <v>0.0039932440971383936</v>
       </c>
       <c r="K163" s="0">
-        <v>2.1137505268199801</v>
+        <v>0.0057910973337533698</v>
       </c>
       <c r="L163" s="0">
         <v>0.7991890738126971</v>
       </c>
       <c r="M163" s="0">
-        <v>4.2562678599009871</v>
+        <v>0.011661007835345169</v>
       </c>
       <c r="N163" s="0">
-        <v>0.37081484727949837</v>
+        <v>0.0010159310884369818</v>
       </c>
     </row>
     <row r="164">
@@ -7323,19 +7323,19 @@
         <v>0</v>
       </c>
       <c r="J164" s="0">
-        <v>1.2393265681147609</v>
+        <v>0.0033954152551089341</v>
       </c>
       <c r="K164" s="0">
-        <v>2.0670164561708142</v>
+        <v>0.005663058784029628</v>
       </c>
       <c r="L164" s="0">
         <v>0.85866176892708235</v>
       </c>
       <c r="M164" s="0">
-        <v>4.2295602312862952</v>
+        <v>0.011587836250099438</v>
       </c>
       <c r="N164" s="0">
-        <v>1.5042822581487154</v>
+        <v>0.0041213212552019601</v>
       </c>
     </row>
     <row r="165">
@@ -7367,19 +7367,19 @@
         <v>0</v>
       </c>
       <c r="J165" s="0">
-        <v>1.5142486015698851</v>
+        <v>0.0041486263056709181</v>
       </c>
       <c r="K165" s="0">
-        <v>2.176374499501569</v>
+        <v>0.0059626698616481342</v>
       </c>
       <c r="L165" s="0">
         <v>1.0391194403810662</v>
       </c>
       <c r="M165" s="0">
-        <v>2.9248463580357504</v>
+        <v>0.0080132776932486313</v>
       </c>
       <c r="N165" s="0">
-        <v>0.2023469939296425</v>
+        <v>0.00055437532583463701</v>
       </c>
     </row>
     <row r="166">
@@ -7411,19 +7411,19 @@
         <v>15.944440754299897</v>
       </c>
       <c r="J166" s="0">
-        <v>1.5134748583786584</v>
+        <v>0.0041465064613113931</v>
       </c>
       <c r="K166" s="0">
-        <v>2.046166945872538</v>
+        <v>0.0056059368380069535</v>
       </c>
       <c r="L166" s="0">
         <v>1.2773415506938715</v>
       </c>
       <c r="M166" s="0">
-        <v>2.741780508806714</v>
+        <v>0.0075117274213882578</v>
       </c>
       <c r="N166" s="0">
-        <v>0.24411820750748175</v>
+        <v>0.00066881700686981303</v>
       </c>
     </row>
     <row r="167">
@@ -7455,19 +7455,19 @@
         <v>0</v>
       </c>
       <c r="J167" s="0">
-        <v>0.7698312077865429</v>
+        <v>0.0021091265966754601</v>
       </c>
       <c r="K167" s="0">
-        <v>0.7980531533080194</v>
+        <v>0.0021864469953644366</v>
       </c>
       <c r="L167" s="0">
         <v>4.1478133914690503</v>
       </c>
       <c r="M167" s="0">
-        <v>1.0431099839753433</v>
+        <v>0.0028578355725351868</v>
       </c>
       <c r="N167" s="0">
-        <v>0.11764064979070188</v>
+        <v>0.000322303150111512</v>
       </c>
     </row>
     <row r="168">
@@ -7499,19 +7499,19 @@
         <v>0</v>
       </c>
       <c r="J168" s="0">
-        <v>0.61041786531236075</v>
+        <v>0.0016723777131845499</v>
       </c>
       <c r="K168" s="0">
-        <v>0.57432321612377069</v>
+        <v>0.0015734882633527964</v>
       </c>
       <c r="L168" s="0">
         <v>6.7322670169401899</v>
       </c>
       <c r="M168" s="0">
-        <v>0.76904314935579465</v>
+        <v>0.0021069675324816291</v>
       </c>
       <c r="N168" s="0">
-        <v>0.078691176318055042</v>
+        <v>0.00021559226388508232</v>
       </c>
     </row>
     <row r="169">
@@ -7543,19 +7543,19 @@
         <v>0</v>
       </c>
       <c r="J169" s="0">
-        <v>0.59005855035352162</v>
+        <v>0.00161659876809184</v>
       </c>
       <c r="K169" s="0">
-        <v>0.63078698818306722</v>
+        <v>0.0017281835292686774</v>
       </c>
       <c r="L169" s="0">
         <v>6.1279078377661298</v>
       </c>
       <c r="M169" s="0">
-        <v>0.76921305683745089</v>
+        <v>0.0021074330324313724</v>
       </c>
       <c r="N169" s="0">
-        <v>0.25714672015919271</v>
+        <v>0.00070451156207998</v>
       </c>
     </row>
     <row r="170">
@@ -7587,19 +7587,19 @@
         <v>0</v>
       </c>
       <c r="J170" s="0">
-        <v>0.56731878122737811</v>
+        <v>0.0015542980307599399</v>
       </c>
       <c r="K170" s="0">
-        <v>0.64915716782176947</v>
+        <v>0.001778512788552793</v>
       </c>
       <c r="L170" s="0">
         <v>5.8327754463342503</v>
       </c>
       <c r="M170" s="0">
-        <v>0.75701837304397102</v>
+        <v>0.0020740229398464958</v>
       </c>
       <c r="N170" s="0">
-        <v>0.36553562040977283</v>
+        <v>0.0010014674531774598</v>
       </c>
     </row>
     <row r="171">
@@ -7631,19 +7631,19 @@
         <v>0</v>
       </c>
       <c r="J171" s="0">
-        <v>0.58028411460530627</v>
+        <v>0.0015898194920693322</v>
       </c>
       <c r="K171" s="0">
-        <v>0.86582536914891717</v>
+        <v>0.0023721242990381291</v>
       </c>
       <c r="L171" s="0">
         <v>2.8251608750214969</v>
       </c>
       <c r="M171" s="0">
-        <v>1.00931061844896</v>
+        <v>0.002765234571093041</v>
       </c>
       <c r="N171" s="0">
-        <v>0.70793636663200665</v>
+        <v>0.0019395516894027578</v>
       </c>
     </row>
     <row r="172">
@@ -7675,19 +7675,19 @@
         <v>0</v>
       </c>
       <c r="J172" s="0">
-        <v>0.5787364035260234</v>
+        <v>0.00158557918774253</v>
       </c>
       <c r="K172" s="0">
-        <v>0.88925008996767241</v>
+        <v>0.0024363016163497873</v>
       </c>
       <c r="L172" s="0">
         <v>2.6161812010009902</v>
       </c>
       <c r="M172" s="0">
-        <v>1.0258653440340546</v>
+        <v>0.002810589983654944</v>
       </c>
       <c r="N172" s="0">
-        <v>0.73493162579844584</v>
+        <v>0.0020135113035573858</v>
       </c>
     </row>
     <row r="173">
@@ -7719,19 +7719,19 @@
         <v>0</v>
       </c>
       <c r="J173" s="0">
-        <v>0.65059815748953476</v>
+        <v>0.0017824607054507801</v>
       </c>
       <c r="K173" s="0">
-        <v>0.9471208467245924</v>
+        <v>0.002594851634861897</v>
       </c>
       <c r="L173" s="0">
         <v>2.5988542068315446</v>
       </c>
       <c r="M173" s="0">
-        <v>1.1236841088065925</v>
+        <v>0.0030785865994701163</v>
       </c>
       <c r="N173" s="0">
-        <v>0.59863153271437164</v>
+        <v>0.0016400863909982785</v>
       </c>
     </row>
     <row r="174">
@@ -7763,19 +7763,19 @@
         <v>0</v>
       </c>
       <c r="J174" s="0">
-        <v>0.6587645301888263</v>
+        <v>0.0018048343292844556</v>
       </c>
       <c r="K174" s="0">
-        <v>0.98541720864078719</v>
+        <v>0.0026997731743583211</v>
       </c>
       <c r="L174" s="0">
         <v>2.5913481078673488</v>
       </c>
       <c r="M174" s="0">
-        <v>1.1354106460393381</v>
+        <v>0.0031107140987379125</v>
       </c>
       <c r="N174" s="0">
-        <v>0.7536639685516977</v>
+        <v>0.0020648327905525964</v>
       </c>
     </row>
     <row r="175">
@@ -7807,19 +7807,19 @@
         <v>44.915606537699794</v>
       </c>
       <c r="J175" s="0">
-        <v>0.85396843789559873</v>
+        <v>0.0023396395558783526</v>
       </c>
       <c r="K175" s="0">
-        <v>0.95127692280914355</v>
+        <v>0.0026062381446825852</v>
       </c>
       <c r="L175" s="0">
         <v>2.3476713078072016</v>
       </c>
       <c r="M175" s="0">
-        <v>1.360426752418479</v>
+        <v>0.0037271965819684356</v>
       </c>
       <c r="N175" s="0">
-        <v>0.12823590490498743</v>
+        <v>0.00035133124631503404</v>
       </c>
     </row>
     <row r="176">
@@ -7851,19 +7851,19 @@
         <v>139.67554245312107</v>
       </c>
       <c r="J176" s="0">
-        <v>0.64908758705240654</v>
+        <v>0.0017783221563079632</v>
       </c>
       <c r="K176" s="0">
-        <v>0.51829182902108395</v>
+        <v>0.0014199776137563945</v>
       </c>
       <c r="L176" s="0">
         <v>5.1050326301033326</v>
       </c>
       <c r="M176" s="0">
-        <v>0.93085311696534478</v>
+        <v>0.0025502825122338214</v>
       </c>
       <c r="N176" s="0">
-        <v>0.14407672516467951</v>
+        <v>0.0003947307538758343</v>
       </c>
     </row>
     <row r="177">
@@ -7895,19 +7895,19 @@
         <v>77.066384813252313</v>
       </c>
       <c r="J177" s="0">
-        <v>0.52810728437015542</v>
+        <v>0.0014468692722470011</v>
       </c>
       <c r="K177" s="0">
-        <v>0.54275647595658449</v>
+        <v>0.0014870040437166699</v>
       </c>
       <c r="L177" s="0">
         <v>3.8180894615950618</v>
       </c>
       <c r="M177" s="0">
-        <v>0.82698222261904375</v>
+        <v>0.0022657047195042295</v>
       </c>
       <c r="N177" s="0">
-        <v>0.060656429836962143</v>
+        <v>0.00016618199955332095</v>
       </c>
     </row>
     <row r="178">
@@ -7939,19 +7939,19 @@
         <v>0</v>
       </c>
       <c r="J178" s="0">
-        <v>0.50234973840593822</v>
+        <v>0.0013763006531669541</v>
       </c>
       <c r="K178" s="0">
-        <v>0.75844286490399426</v>
+        <v>0.0020779256572712171</v>
       </c>
       <c r="L178" s="0">
         <v>3.3067000073154129</v>
       </c>
       <c r="M178" s="0">
-        <v>0.83012144819845968</v>
+        <v>0.0022743053375300264</v>
       </c>
       <c r="N178" s="0">
-        <v>0.64901751968166055</v>
+        <v>0.0017781301909086591</v>
       </c>
     </row>
     <row r="179">
@@ -7983,19 +7983,19 @@
         <v>0</v>
       </c>
       <c r="J179" s="0">
-        <v>4.1103126256731217</v>
+        <v>0.011261130481296225</v>
       </c>
       <c r="K179" s="0">
-        <v>4.5921600756511562</v>
+        <v>0.012581260481236044</v>
       </c>
       <c r="L179" s="0">
         <v>2.3644863886589076</v>
       </c>
       <c r="M179" s="0">
-        <v>6.3953705935679679</v>
+        <v>0.017521563270049226</v>
       </c>
       <c r="N179" s="0">
-        <v>1.9931678789220775</v>
+        <v>0.0054607339148550066</v>
       </c>
     </row>
     <row r="180">
@@ -8027,19 +8027,19 @@
         <v>0</v>
       </c>
       <c r="J180" s="0">
-        <v>1.1348978748258509</v>
+        <v>0.0031093092460982214</v>
       </c>
       <c r="K180" s="0">
-        <v>2.0071335782490536</v>
+        <v>0.0054989961047919277</v>
       </c>
       <c r="L180" s="0">
         <v>3.5686180822051874</v>
       </c>
       <c r="M180" s="0">
-        <v>2.7359700650652883</v>
+        <v>0.0074958083974391463</v>
       </c>
       <c r="N180" s="0">
-        <v>2.7359700650652883</v>
+        <v>0.0074958083974391463</v>
       </c>
     </row>
     <row r="181">
@@ -8071,19 +8071,19 @@
         <v>0</v>
       </c>
       <c r="J181" s="0">
-        <v>1.0304015493208958</v>
+        <v>0.0028230179433449201</v>
       </c>
       <c r="K181" s="0">
-        <v>1.1317025196579489</v>
+        <v>0.0031005548483779418</v>
       </c>
       <c r="L181" s="0">
         <v>17.832561820817606</v>
       </c>
       <c r="M181" s="0">
-        <v>1.3431803909012776</v>
+        <v>0.0036799462764418567</v>
       </c>
       <c r="N181" s="0">
-        <v>1.3431803909012776</v>
+        <v>0.0036799462764418567</v>
       </c>
     </row>
     <row r="182">
@@ -8115,19 +8115,19 @@
         <v>67.080933699578324</v>
       </c>
       <c r="J182" s="0">
-        <v>1.2331916269213434</v>
+        <v>0.0033786071970447768</v>
       </c>
       <c r="K182" s="0">
-        <v>0.40380025293522526</v>
+        <v>0.0011063020628362336</v>
       </c>
       <c r="L182" s="0">
         <v>29.147667954217297</v>
       </c>
       <c r="M182" s="0">
-        <v>0.84007077535542751</v>
+        <v>0.0023015637680970616</v>
       </c>
       <c r="N182" s="0">
-        <v>0.065651676309601725</v>
+        <v>0.00017986760632767598</v>
       </c>
     </row>
     <row r="183">
@@ -8159,19 +8159,19 @@
         <v>138.36038669805203</v>
       </c>
       <c r="J183" s="0">
-        <v>1.3686122161756296</v>
+        <v>0.003749622510070218</v>
       </c>
       <c r="K183" s="0">
-        <v>1.0512529820588339</v>
+        <v>0.0028801451563255725</v>
       </c>
       <c r="L183" s="0">
         <v>9.2359777388314601</v>
       </c>
       <c r="M183" s="0">
-        <v>2.3080574310518229</v>
+        <v>0.0063234450165803365</v>
       </c>
       <c r="N183" s="0">
-        <v>0.20049125037393423</v>
+        <v>0.00054929109691488826</v>
       </c>
     </row>
     <row r="184">
@@ -8203,19 +8203,19 @@
         <v>168.09750656528357</v>
       </c>
       <c r="J184" s="0">
-        <v>1.2878410047030047</v>
+        <v>0.0035283315197342595</v>
       </c>
       <c r="K184" s="0">
-        <v>0.82080780536810138</v>
+        <v>0.0022487885078578121</v>
       </c>
       <c r="L184" s="0">
         <v>12.701931177889181</v>
       </c>
       <c r="M184" s="0">
-        <v>1.8902082406311691</v>
+        <v>0.0051786527140579974</v>
       </c>
       <c r="N184" s="0">
-        <v>0.25318251617377313</v>
+        <v>0.00069365072924321407</v>
       </c>
     </row>
     <row r="185">
@@ -8247,19 +8247,19 @@
         <v>205.30387432880516</v>
       </c>
       <c r="J185" s="0">
-        <v>1.0766419345632121</v>
+        <v>0.0029497039303101702</v>
       </c>
       <c r="K185" s="0">
-        <v>0.59481332084233096</v>
+        <v>0.0016296255365543313</v>
       </c>
       <c r="L185" s="0">
         <v>19.364263796549093</v>
       </c>
       <c r="M185" s="0">
-        <v>1.3695707699456068</v>
+        <v>0.0037522486847824843</v>
       </c>
       <c r="N185" s="0">
-        <v>0.20933115641417557</v>
+        <v>0.00057351001757308378</v>
       </c>
     </row>
     <row r="186">
@@ -8291,19 +8291,19 @@
         <v>216.43364562652104</v>
       </c>
       <c r="J186" s="0">
-        <v>1.2821436560028838</v>
+        <v>0.0035127223452133803</v>
       </c>
       <c r="K186" s="0">
-        <v>0.55849865034921631</v>
+        <v>0.0015301332886279899</v>
       </c>
       <c r="L186" s="0">
         <v>18.950556179523623</v>
       </c>
       <c r="M186" s="0">
-        <v>1.4795583939756352</v>
+        <v>0.0040535846410291376</v>
       </c>
       <c r="N186" s="0">
-        <v>0.22686090695660543</v>
+        <v>0.00062153673138796008</v>
       </c>
     </row>
     <row r="187">
@@ -8335,19 +8335,19 @@
         <v>179.45269940222911</v>
       </c>
       <c r="J187" s="0">
-        <v>0.379452332694238</v>
+        <v>0.0010395954320390082</v>
       </c>
       <c r="K187" s="0">
-        <v>0.34690896890814776</v>
+        <v>0.00095043553125519935</v>
       </c>
       <c r="L187" s="0">
         <v>18.10769058882725</v>
       </c>
       <c r="M187" s="0">
-        <v>0.51495344291273071</v>
+        <v>0.0014108313504458375</v>
       </c>
       <c r="N187" s="0">
-        <v>0.043283165650048833</v>
+        <v>0.00011858401547958584</v>
       </c>
     </row>
     <row r="188">
@@ -8379,19 +8379,19 @@
         <v>225.73294862580954</v>
       </c>
       <c r="J188" s="0">
-        <v>0.36968727725890227</v>
+        <v>0.0010128418555038418</v>
       </c>
       <c r="K188" s="0">
-        <v>0.31322250775383736</v>
+        <v>0.00085814385685982844</v>
       </c>
       <c r="L188" s="0">
         <v>24.464982378936991</v>
       </c>
       <c r="M188" s="0">
-        <v>0.45923742472514584</v>
+        <v>0.0012581847252743721</v>
       </c>
       <c r="N188" s="0">
-        <v>0.040857957927708924</v>
+        <v>0.00011193961076084637</v>
       </c>
     </row>
     <row r="189">
@@ -8423,19 +8423,19 @@
         <v>358.96911901991905</v>
       </c>
       <c r="J189" s="0">
-        <v>0.31174104185831919</v>
+        <v>0.00085408504618717592</v>
       </c>
       <c r="K189" s="0">
-        <v>0.22216269155255469</v>
+        <v>0.00060866490836316352</v>
       </c>
       <c r="L189" s="0">
         <v>39.485766760724161</v>
       </c>
       <c r="M189" s="0">
-        <v>0.34341104670697525</v>
+        <v>0.00094085218275883633</v>
       </c>
       <c r="N189" s="0">
-        <v>0.054794464734928897</v>
+        <v>0.00015012182119158603</v>
       </c>
     </row>
     <row r="190">
@@ -8467,19 +8467,19 @@
         <v>0</v>
       </c>
       <c r="J190" s="0">
-        <v>0.29046057201873676</v>
+        <v>0.00079578238909242948</v>
       </c>
       <c r="K190" s="0">
-        <v>0.25990181102803667</v>
+        <v>0.00071205975624119631</v>
       </c>
       <c r="L190" s="0">
         <v>37.175040825029861</v>
       </c>
       <c r="M190" s="0">
-        <v>0.36435312642975565</v>
+        <v>0.00099822774364316611</v>
       </c>
       <c r="N190" s="0">
-        <v>0.17705055653071919</v>
+        <v>0.00048507001789238136</v>
       </c>
     </row>
     <row r="191">
@@ -8511,19 +8511,19 @@
         <v>0</v>
       </c>
       <c r="J191" s="0">
-        <v>0.32086399424414008</v>
+        <v>0.00087907943628531523</v>
       </c>
       <c r="K191" s="0">
-        <v>0.26616998961344829</v>
+        <v>0.00072923284825602273</v>
       </c>
       <c r="L191" s="0">
         <v>40.527421477969241</v>
       </c>
       <c r="M191" s="0">
-        <v>0.37537298938058034</v>
+        <v>0.0010284191489878913</v>
       </c>
       <c r="N191" s="0">
-        <v>0.13587432618592027</v>
+        <v>0.00037225842790663085</v>
       </c>
     </row>
     <row r="192">
@@ -8555,19 +8555,19 @@
         <v>0</v>
       </c>
       <c r="J192" s="0">
-        <v>0.2526359945212579</v>
+        <v>0.00069215340964728185</v>
       </c>
       <c r="K192" s="0">
-        <v>0.15203858334031242</v>
+        <v>0.00041654406394606142</v>
       </c>
       <c r="L192" s="0">
         <v>69.605144161155096</v>
       </c>
       <c r="M192" s="0">
-        <v>0.25957675836137734</v>
+        <v>0.00071116920099007484</v>
       </c>
       <c r="N192" s="0">
-        <v>0.022277540586602071</v>
+        <v>6.1034357771512522e-05</v>
       </c>
     </row>
     <row r="193">
@@ -8599,19 +8599,19 @@
         <v>543.17012679193135</v>
       </c>
       <c r="J193" s="0">
-        <v>0.54319859822782657</v>
+        <v>0.0014882153376104836</v>
       </c>
       <c r="K193" s="0">
-        <v>0.31813701269647859</v>
+        <v>0.000871608253962955</v>
       </c>
       <c r="L193" s="0">
         <v>22.243558262923905</v>
       </c>
       <c r="M193" s="0">
-        <v>0.73266514990749843</v>
+        <v>0.0020073017805684887</v>
       </c>
       <c r="N193" s="0">
-        <v>0.070761398016751284</v>
+        <v>0.00019386684388151036</v>
       </c>
     </row>
     <row r="194">
@@ -8643,19 +8643,19 @@
         <v>512.4355719524508</v>
       </c>
       <c r="J194" s="0">
-        <v>0.53742552758473461</v>
+        <v>0.0014723987057116018</v>
       </c>
       <c r="K194" s="0">
-        <v>0.35208178138330093</v>
+        <v>0.00096460762022822168</v>
       </c>
       <c r="L194" s="0">
         <v>28.02918154207044</v>
       </c>
       <c r="M194" s="0">
-        <v>0.66557104518739285</v>
+        <v>0.0018234823155818983</v>
       </c>
       <c r="N194" s="0">
-        <v>0.087128784092391554</v>
+        <v>0.00023870899751340152</v>
       </c>
     </row>
     <row r="195">
@@ -8687,19 +8687,19 @@
         <v>739.17178095641111</v>
       </c>
       <c r="J195" s="0">
-        <v>0.42321642121066411</v>
+        <v>0.0011594970444127784</v>
       </c>
       <c r="K195" s="0">
-        <v>0.18212555554341206</v>
+        <v>0.00049897412477647139</v>
       </c>
       <c r="L195" s="0">
         <v>67.825772372521598</v>
       </c>
       <c r="M195" s="0">
-        <v>0.38743226881022563</v>
+        <v>0.001061458270712947</v>
       </c>
       <c r="N195" s="0">
-        <v>0.026905949357614735</v>
+        <v>7.3714929746889686e-05</v>
       </c>
     </row>
     <row r="196">
@@ -8731,19 +8731,19 @@
         <v>277.30910452985341</v>
       </c>
       <c r="J196" s="0">
-        <v>0.34725641061573082</v>
+        <v>0.00095138742634446791</v>
       </c>
       <c r="K196" s="0">
-        <v>0.27481049530108481</v>
+        <v>0.00075290546657831451</v>
       </c>
       <c r="L196" s="0">
         <v>21.458898323372011</v>
       </c>
       <c r="M196" s="0">
-        <v>0.46005870989061765</v>
+        <v>0.0012604348216181305</v>
       </c>
       <c r="N196" s="0">
-        <v>0.049719243812920824</v>
+        <v>0.00013621710633676939</v>
       </c>
     </row>
     <row r="197">
@@ -8775,19 +8775,19 @@
         <v>457.5420790199276</v>
       </c>
       <c r="J197" s="0">
-        <v>0.2943899670554489</v>
+        <v>0.00080654785494643528</v>
       </c>
       <c r="K197" s="0">
-        <v>0.17444375479612426</v>
+        <v>0.00047792809533184731</v>
       </c>
       <c r="L197" s="0">
         <v>49.76351150329031</v>
       </c>
       <c r="M197" s="0">
-        <v>0.30008939215826291</v>
+        <v>0.00082216271824181626</v>
       </c>
       <c r="N197" s="0">
-        <v>0.034177576517364756</v>
+        <v>9.3637195937985642e-05</v>
       </c>
     </row>
     <row r="198">
@@ -8819,19 +8819,19 @@
         <v>814.79307156880463</v>
       </c>
       <c r="J198" s="0">
-        <v>0.26176012169614549</v>
+        <v>0.00071715101834560408</v>
       </c>
       <c r="K198" s="0">
-        <v>0.079090276462507811</v>
+        <v>0.00021668568893837755</v>
       </c>
       <c r="L198" s="0">
         <v>83.917588340203366</v>
       </c>
       <c r="M198" s="0">
-        <v>0.21538787287376304</v>
+        <v>0.00059010376129798095</v>
       </c>
       <c r="N198" s="0">
-        <v>0.020493804137067122</v>
+        <v>5.6147408594704447e-05</v>
       </c>
     </row>
     <row r="199">
@@ -8863,19 +8863,19 @@
         <v>0</v>
       </c>
       <c r="J199" s="0">
-        <v>0.33558739583243369</v>
+        <v>0.00091941752282858539</v>
       </c>
       <c r="K199" s="0">
-        <v>0.36497620467844327</v>
+        <v>0.0009999348073382007</v>
       </c>
       <c r="L199" s="0">
         <v>35.805600036549087</v>
       </c>
       <c r="M199" s="0">
-        <v>0.40486646262783949</v>
+        <v>0.0011092231852817521</v>
       </c>
       <c r="N199" s="0">
-        <v>0.32282023760115008</v>
+        <v>0.00088443900712643854</v>
       </c>
     </row>
     <row r="200">
@@ -8907,19 +8907,19 @@
         <v>137.5199081478724</v>
       </c>
       <c r="J200" s="0">
-        <v>0.4693404086115624</v>
+        <v>0.0012858641331823628</v>
       </c>
       <c r="K200" s="0">
-        <v>0.47057122529505363</v>
+        <v>0.0012892362336850785</v>
       </c>
       <c r="L200" s="0">
         <v>15.927836630636552</v>
       </c>
       <c r="M200" s="0">
-        <v>0.64580759754912165</v>
+        <v>0.0017693358836962238</v>
       </c>
       <c r="N200" s="0">
-        <v>0.10590055261954133</v>
+        <v>0.00029013850032751049</v>
       </c>
     </row>
     <row r="201">
@@ -8951,19 +8951,19 @@
         <v>128.41544418744803</v>
       </c>
       <c r="J201" s="0">
-        <v>0.31006759132509781</v>
+        <v>0.00084950025020574739</v>
       </c>
       <c r="K201" s="0">
-        <v>0.2861118185311553</v>
+        <v>0.00078386799597576795</v>
       </c>
       <c r="L201" s="0">
         <v>25.622088774882105</v>
       </c>
       <c r="M201" s="0">
-        <v>0.41846295367840591</v>
+        <v>0.0011464738456942627</v>
       </c>
       <c r="N201" s="0">
-        <v>0.029247633834605938</v>
+        <v>8.013050365645463e-05</v>
       </c>
     </row>
   </sheetData>
